--- a/output5/【河洛話注音】桃花源記【文讀音】.xlsx
+++ b/output5/【河洛話注音】桃花源記【文讀音】.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9978D1C5-2FBE-4878-98DB-57F60B101B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7935932A-2DCC-45BE-8350-8238931C9581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="797">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1391,1962 +1391,1967 @@
     <t>自</t>
   </si>
   <si>
+    <t>乃</t>
+  </si>
+  <si>
+    <t>驚</t>
+  </si>
+  <si>
+    <t>問</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>具</t>
+  </si>
+  <si>
+    <t>答</t>
+  </si>
+  <si>
+    <t>家</t>
+  </si>
+  <si>
+    <t>設</t>
+  </si>
+  <si>
+    <t>酒</t>
+  </si>
+  <si>
+    <t>此</t>
+  </si>
+  <si>
+    <t>咸</t>
+  </si>
+  <si>
+    <t>訊</t>
+  </si>
+  <si>
+    <t>云</t>
+  </si>
+  <si>
+    <t>：</t>
+  </si>
+  <si>
+    <t>「</t>
+  </si>
+  <si>
+    <t>先</t>
+  </si>
+  <si>
+    <t>世</t>
+  </si>
+  <si>
+    <t>秦</t>
+  </si>
+  <si>
+    <t>時</t>
+  </si>
+  <si>
+    <t>亂</t>
+  </si>
+  <si>
+    <t>率</t>
+  </si>
+  <si>
+    <t>妻</t>
+  </si>
+  <si>
+    <t>子</t>
+  </si>
+  <si>
+    <t>邑</t>
+  </si>
+  <si>
+    <t>絕</t>
+  </si>
+  <si>
+    <t>境</t>
+  </si>
+  <si>
+    <t>不</t>
+  </si>
+  <si>
+    <t>出</t>
+  </si>
+  <si>
+    <t>焉</t>
+  </si>
+  <si>
+    <t>遂</t>
+  </si>
+  <si>
+    <t>與</t>
+  </si>
+  <si>
+    <t>間</t>
+  </si>
+  <si>
+    <t>」</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>漢</t>
+  </si>
+  <si>
+    <t>論</t>
+  </si>
+  <si>
+    <t>魏</t>
+  </si>
+  <si>
+    <t>！</t>
+  </si>
+  <si>
+    <t>言</t>
+  </si>
+  <si>
+    <t>皆</t>
+  </si>
+  <si>
+    <t>惋</t>
+  </si>
+  <si>
+    <t>餘</t>
+  </si>
+  <si>
+    <t>延</t>
+  </si>
+  <si>
+    <t>至</t>
+  </si>
+  <si>
+    <t>停</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>辭</t>
+  </si>
+  <si>
+    <t>語</t>
+  </si>
+  <si>
+    <t>足</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>也</t>
+  </si>
+  <si>
+    <t>既</t>
+  </si>
+  <si>
+    <t>向</t>
+  </si>
+  <si>
+    <t>處</t>
+  </si>
+  <si>
+    <t>誌</t>
+  </si>
+  <si>
+    <t>及</t>
+  </si>
+  <si>
+    <t>郡</t>
+  </si>
+  <si>
+    <t>守</t>
+  </si>
+  <si>
+    <t>說</t>
+  </si>
+  <si>
+    <t>遣</t>
+  </si>
+  <si>
+    <t>隨</t>
+  </si>
+  <si>
+    <t>尋</t>
+  </si>
+  <si>
+    <t>迷</t>
+  </si>
+  <si>
+    <t>南</t>
+  </si>
+  <si>
+    <t>陽</t>
+  </si>
+  <si>
+    <t>劉</t>
+  </si>
+  <si>
+    <t>驥</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>尚</t>
+  </si>
+  <si>
+    <t>士</t>
+  </si>
+  <si>
+    <t>規</t>
+  </si>
+  <si>
+    <t>未</t>
+  </si>
+  <si>
+    <t>果</t>
+  </si>
+  <si>
+    <t>病</t>
+  </si>
+  <si>
+    <t>終</t>
+  </si>
+  <si>
+    <t>後</t>
+  </si>
+  <si>
+    <t>津</t>
+  </si>
+  <si>
+    <t>者</t>
+  </si>
+  <si>
+    <t>鮮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>種</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>著</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>並</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>問</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>還</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ke1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄣ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㄞ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㄚㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㆤˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hua1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄚˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄚㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pian7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>san1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ka1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄚˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆤˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khian2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄧㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiau5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄠˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄞˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ham5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆰˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄣ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>un5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄨㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄚㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>han3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄨㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄞˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kun7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨㄣ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ge7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bun7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨㄣ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>than3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ling5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lim5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㆬˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>song1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄞ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iau3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄠ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㆬˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>語音類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文讀音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花源記【文讀音】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄠˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kin7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄣ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㄥ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tau5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄠˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kap4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄚㆴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sian3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㄧㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄣˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄠˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khio2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄧㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sia3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄚ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄚㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄞ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄞˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liam2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㆰˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄇㄧㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kau1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄠˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nam5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㆰˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gak8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄚㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hian7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ku7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tap4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄚㆴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lut7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄨㆵ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ting5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄠˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khian3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄧㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>me5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄇㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hio5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zut1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㆵˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ze3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ian7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄚㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>樂</t>
-  </si>
-  <si>
-    <t>乃</t>
-  </si>
-  <si>
-    <t>驚</t>
-  </si>
-  <si>
-    <t>問</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>具</t>
-  </si>
-  <si>
-    <t>答</t>
-  </si>
-  <si>
-    <t>家</t>
-  </si>
-  <si>
-    <t>設</t>
-  </si>
-  <si>
-    <t>酒</t>
-  </si>
-  <si>
-    <t>此</t>
-  </si>
-  <si>
-    <t>咸</t>
-  </si>
-  <si>
-    <t>訊</t>
-  </si>
-  <si>
-    <t>云</t>
-  </si>
-  <si>
-    <t>：</t>
-  </si>
-  <si>
-    <t>「</t>
-  </si>
-  <si>
-    <t>先</t>
-  </si>
-  <si>
-    <t>世</t>
-  </si>
-  <si>
-    <t>秦</t>
-  </si>
-  <si>
-    <t>時</t>
-  </si>
-  <si>
-    <t>亂</t>
-  </si>
-  <si>
-    <t>率</t>
-  </si>
-  <si>
-    <t>妻</t>
-  </si>
-  <si>
-    <t>子</t>
-  </si>
-  <si>
-    <t>邑</t>
-  </si>
-  <si>
-    <t>絕</t>
-  </si>
-  <si>
-    <t>境</t>
-  </si>
-  <si>
-    <t>不</t>
-  </si>
-  <si>
-    <t>出</t>
-  </si>
-  <si>
-    <t>焉</t>
-  </si>
-  <si>
-    <t>遂</t>
-  </si>
-  <si>
-    <t>與</t>
-  </si>
-  <si>
-    <t>間</t>
-  </si>
-  <si>
-    <t>」</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>何</t>
-  </si>
-  <si>
-    <t>？</t>
-  </si>
-  <si>
-    <t>漢</t>
-  </si>
-  <si>
-    <t>論</t>
-  </si>
-  <si>
-    <t>魏</t>
-  </si>
-  <si>
-    <t>！</t>
-  </si>
-  <si>
-    <t>言</t>
-  </si>
-  <si>
-    <t>皆</t>
-  </si>
-  <si>
-    <t>惋</t>
-  </si>
-  <si>
-    <t>餘</t>
-  </si>
-  <si>
-    <t>延</t>
-  </si>
-  <si>
-    <t>至</t>
-  </si>
-  <si>
-    <t>停</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>辭</t>
-  </si>
-  <si>
-    <t>語</t>
-  </si>
-  <si>
-    <t>足</t>
-  </si>
-  <si>
-    <t>道</t>
-  </si>
-  <si>
-    <t>也</t>
-  </si>
-  <si>
-    <t>既</t>
-  </si>
-  <si>
-    <t>向</t>
-  </si>
-  <si>
-    <t>處</t>
-  </si>
-  <si>
-    <t>誌</t>
-  </si>
-  <si>
-    <t>及</t>
-  </si>
-  <si>
-    <t>郡</t>
-  </si>
-  <si>
-    <t>守</t>
-  </si>
-  <si>
-    <t>說</t>
-  </si>
-  <si>
-    <t>遣</t>
-  </si>
-  <si>
-    <t>隨</t>
-  </si>
-  <si>
-    <t>尋</t>
-  </si>
-  <si>
-    <t>迷</t>
-  </si>
-  <si>
-    <t>南</t>
-  </si>
-  <si>
-    <t>陽</t>
-  </si>
-  <si>
-    <t>劉</t>
-  </si>
-  <si>
-    <t>驥</t>
-  </si>
-  <si>
-    <t>高</t>
-  </si>
-  <si>
-    <t>尚</t>
-  </si>
-  <si>
-    <t>士</t>
-  </si>
-  <si>
-    <t>規</t>
-  </si>
-  <si>
-    <t>未</t>
-  </si>
-  <si>
-    <t>果</t>
-  </si>
-  <si>
-    <t>病</t>
-  </si>
-  <si>
-    <t>終</t>
-  </si>
-  <si>
-    <t>後</t>
-  </si>
-  <si>
-    <t>津</t>
-  </si>
-  <si>
-    <t>者</t>
-  </si>
-  <si>
-    <t>鮮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>種</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>著</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>髫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>並</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>見</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>問</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>還</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>殺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ke1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>村</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>避</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>便</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zin3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄣ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㄞ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄨㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄧㄚㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khe1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㆤˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bong7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hua1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄚˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄚㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄥˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ki5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pian7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㄢ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>san1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄢˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㆲˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thoo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㆲ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ka1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄚˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆤˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khian2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄧㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆲ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄞˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiau5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄠˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nai2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄞˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ham5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆰˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sin3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄣ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>un5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>luan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄨㄢ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㄚㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>king2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄥˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄢˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ho5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>han3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄢ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄨㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄞˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uan3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄢ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ki3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kun7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄨㄣ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ge7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siong7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄨㄧˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ko2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆬˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆲˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bun7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄨㄣ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>than3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㄢ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ling5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lim5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㆬˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄢ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆬ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>song1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆲˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆲ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tai7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄞ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iau3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄠ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kim1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㆬˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ha7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄚ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>語音類型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文讀音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃花源記【文讀音】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄠˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄢˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kin7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄣ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㆲˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>king1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄥˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㄥ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆲ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>piong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tau5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄠˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kap4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄚㆴ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㆲˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sian3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄢ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㄧㄣˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㄣˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zin2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄣˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄠˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khio2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄧㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆲ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sia3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄚ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziong7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄚㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zai7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄞ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄞˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liam2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㆰˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄇㄧㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kau1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄠˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nam5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㆰˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ju7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆡㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㄥˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zi7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gak8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄚㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hian7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄢ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ku7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tap4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄚㆴ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sut4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zi2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lut7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄨㆵ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ting5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄠˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄨ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khian3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄧㄢ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>me5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄇㆤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄣˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄨㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hio5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄣˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄢ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zian1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆲˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zut1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㆵˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ze3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆴ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zut4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ian7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄢ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄚㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆲˊ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3354,7 +3359,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="80">
+  <fonts count="81">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -3906,6 +3911,14 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="吳守禮細明台語注音"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="新細明體"/>
@@ -4083,7 +4096,7 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4367,7 +4380,10 @@
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4386,6 +4402,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5581,7 +5600,7 @@
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="99" t="s">
         <v>626</v>
       </c>
       <c r="C11" s="53" t="s">
@@ -5606,8 +5625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:AC242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:J21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -5664,7 +5683,7 @@
       <c r="Q3" s="83"/>
       <c r="R3" s="83"/>
       <c r="T3" s="92"/>
-      <c r="V3" s="99" t="s">
+      <c r="V3" s="100" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5673,13 +5692,13 @@
       <c r="D4" s="84"/>
       <c r="E4" s="84"/>
       <c r="F4" s="84" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H4" s="84" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I4" s="84" t="s">
         <v>644</v>
@@ -5688,19 +5707,19 @@
         <v>763</v>
       </c>
       <c r="K4" s="84" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L4" s="84" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M4" s="84" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N4" s="84" t="s">
         <v>762</v>
       </c>
       <c r="O4" s="84" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P4" s="84" t="s">
         <v>587</v>
@@ -5709,7 +5728,7 @@
         <v>766</v>
       </c>
       <c r="R4" s="84" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S4" s="93" t="s">
         <v>764</v>
@@ -5717,7 +5736,7 @@
       <c r="T4" s="1">
         <v>8</v>
       </c>
-      <c r="V4" s="100"/>
+      <c r="V4" s="101"/>
     </row>
     <row r="5" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
@@ -5762,14 +5781,14 @@
       <c r="P5" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="Q5" s="80" t="s">
+      <c r="Q5" s="98" t="s">
         <v>196</v>
       </c>
       <c r="R5" s="80" t="s">
         <v>197</v>
       </c>
       <c r="S5" s="94"/>
-      <c r="V5" s="100"/>
+      <c r="V5" s="101"/>
     </row>
     <row r="6" spans="2:29" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
@@ -5777,30 +5796,30 @@
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
       <c r="F6" s="85" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H6" s="85" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I6" s="85" t="s">
         <v>645</v>
       </c>
       <c r="J6" s="85"/>
       <c r="K6" s="85" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L6" s="85" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M6" s="85" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N6" s="85"/>
       <c r="O6" s="85" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P6" s="85" t="s">
         <v>588</v>
@@ -5809,10 +5828,10 @@
         <v>767</v>
       </c>
       <c r="R6" s="85" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="S6" s="95"/>
-      <c r="V6" s="100"/>
+      <c r="V6" s="101"/>
     </row>
     <row r="7" spans="2:29" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
@@ -5820,7 +5839,9 @@
       <c r="D7" s="83"/>
       <c r="E7" s="83"/>
       <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
+      <c r="G7" s="83" t="s">
+        <v>580</v>
+      </c>
       <c r="H7" s="83"/>
       <c r="I7" s="83"/>
       <c r="J7" s="83"/>
@@ -5833,7 +5854,7 @@
       <c r="Q7" s="83"/>
       <c r="R7" s="83"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="100"/>
+      <c r="V7" s="101"/>
     </row>
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
@@ -5842,20 +5863,20 @@
         <v>768</v>
       </c>
       <c r="F8" s="84" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G8" s="84" t="s">
         <v>646</v>
       </c>
       <c r="H8" s="84"/>
       <c r="I8" s="84" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J8" s="84" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K8" s="84" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L8" s="84" t="s">
         <v>768</v>
@@ -5867,7 +5888,7 @@
         <v>762</v>
       </c>
       <c r="O8" s="84" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P8" s="84" t="s">
         <v>648</v>
@@ -5876,7 +5897,7 @@
         <v>650</v>
       </c>
       <c r="R8" s="84" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S8" s="93" t="s">
         <v>765</v>
@@ -5884,7 +5905,7 @@
       <c r="T8" s="1">
         <v>1</v>
       </c>
-      <c r="V8" s="100"/>
+      <c r="V8" s="101"/>
     </row>
     <row r="9" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
@@ -5900,7 +5921,7 @@
       <c r="F9" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="98" t="s">
         <v>200</v>
       </c>
       <c r="H9" s="80" t="s">
@@ -5927,10 +5948,10 @@
       <c r="O9" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="P9" s="80" t="s">
+      <c r="P9" s="106" t="s">
         <v>208</v>
       </c>
-      <c r="Q9" s="80" t="s">
+      <c r="Q9" s="98" t="s">
         <v>209</v>
       </c>
       <c r="R9" s="80" t="s">
@@ -5938,7 +5959,7 @@
       </c>
       <c r="S9" s="94"/>
       <c r="T9" s="92"/>
-      <c r="V9" s="100"/>
+      <c r="V9" s="101"/>
     </row>
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
@@ -5947,20 +5968,20 @@
         <v>769</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G10" s="85" t="s">
         <v>647</v>
       </c>
       <c r="H10" s="85"/>
       <c r="I10" s="85" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J10" s="85" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K10" s="85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L10" s="85" t="s">
         <v>769</v>
@@ -5970,7 +5991,7 @@
       </c>
       <c r="N10" s="85"/>
       <c r="O10" s="85" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P10" s="85" t="s">
         <v>649</v>
@@ -5979,10 +6000,10 @@
         <v>651</v>
       </c>
       <c r="R10" s="85" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="S10" s="96"/>
-      <c r="V10" s="100"/>
+      <c r="V10" s="101"/>
     </row>
     <row r="11" spans="2:29" s="66" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="65"/>
@@ -6002,7 +6023,7 @@
       <c r="P11" s="83"/>
       <c r="Q11" s="83"/>
       <c r="R11" s="83"/>
-      <c r="V11" s="100"/>
+      <c r="V11" s="101"/>
     </row>
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
@@ -6023,20 +6044,20 @@
         <v>585</v>
       </c>
       <c r="J12" s="84" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K12" s="84"/>
       <c r="L12" s="84" t="s">
         <v>644</v>
       </c>
       <c r="M12" s="84" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N12" s="84" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O12" s="84" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="P12" s="84"/>
       <c r="Q12" s="84" t="s">
@@ -6046,7 +6067,7 @@
         <v>770</v>
       </c>
       <c r="S12" s="93"/>
-      <c r="V12" s="100"/>
+      <c r="V12" s="101"/>
     </row>
     <row r="13" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
@@ -6059,7 +6080,7 @@
       <c r="E13" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="80" t="s">
+      <c r="F13" s="98" t="s">
         <v>212</v>
       </c>
       <c r="G13" s="80" t="s">
@@ -6092,14 +6113,14 @@
       <c r="P13" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="Q13" s="80" t="s">
+      <c r="Q13" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="R13" s="80" t="s">
+      <c r="R13" s="98" t="s">
         <v>221</v>
       </c>
       <c r="S13" s="94"/>
-      <c r="V13" s="100"/>
+      <c r="V13" s="101"/>
     </row>
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
@@ -6120,20 +6141,20 @@
         <v>586</v>
       </c>
       <c r="J14" s="85" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K14" s="85"/>
       <c r="L14" s="85" t="s">
         <v>645</v>
       </c>
       <c r="M14" s="85" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N14" s="85" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O14" s="85" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P14" s="85"/>
       <c r="Q14" s="85" t="s">
@@ -6143,7 +6164,7 @@
         <v>630</v>
       </c>
       <c r="S14" s="96"/>
-      <c r="V14" s="100"/>
+      <c r="V14" s="101"/>
     </row>
     <row r="15" spans="2:29" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
@@ -6163,7 +6184,7 @@
       <c r="P15" s="83"/>
       <c r="Q15" s="83"/>
       <c r="R15" s="83"/>
-      <c r="V15" s="100"/>
+      <c r="V15" s="101"/>
       <c r="AC15" s="67" t="s">
         <v>184</v>
       </c>
@@ -6174,14 +6195,14 @@
         <v>658</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F16" s="84"/>
       <c r="G16" s="84" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H16" s="84" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I16" s="84" t="s">
         <v>660</v>
@@ -6194,23 +6215,23 @@
         <v>587</v>
       </c>
       <c r="M16" s="84" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N16" s="84" t="s">
         <v>589</v>
       </c>
       <c r="O16" s="84" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P16" s="84" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q16" s="84"/>
       <c r="R16" s="84" t="s">
         <v>664</v>
       </c>
       <c r="S16" s="93"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="101"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
@@ -6218,7 +6239,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E17" s="80" t="s">
         <v>222</v>
@@ -6227,15 +6248,15 @@
         <v>190</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H17" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="I17" s="80" t="s">
+      <c r="I17" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="J17" s="80" t="s">
+      <c r="J17" s="98" t="s">
         <v>225</v>
       </c>
       <c r="K17" s="80" t="s">
@@ -6248,7 +6269,7 @@
         <v>193</v>
       </c>
       <c r="N17" s="80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O17" s="80" t="s">
         <v>227</v>
@@ -6259,11 +6280,11 @@
       <c r="Q17" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="R17" s="80" t="s">
+      <c r="R17" s="98" t="s">
         <v>229</v>
       </c>
       <c r="S17" s="94"/>
-      <c r="V17" s="100"/>
+      <c r="V17" s="101"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
@@ -6271,14 +6292,14 @@
         <v>659</v>
       </c>
       <c r="E18" s="85" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F18" s="85"/>
       <c r="G18" s="85" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H18" s="85" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I18" s="85" t="s">
         <v>661</v>
@@ -6291,23 +6312,23 @@
         <v>588</v>
       </c>
       <c r="M18" s="85" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N18" s="85" t="s">
         <v>590</v>
       </c>
       <c r="O18" s="85" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P18" s="85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q18" s="85"/>
       <c r="R18" s="85" t="s">
         <v>665</v>
       </c>
       <c r="S18" s="96"/>
-      <c r="V18" s="100"/>
+      <c r="V18" s="101"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -6327,7 +6348,7 @@
       <c r="P19" s="83"/>
       <c r="Q19" s="83"/>
       <c r="R19" s="83"/>
-      <c r="V19" s="100"/>
+      <c r="V19" s="101"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
@@ -6342,10 +6363,10 @@
         <v>593</v>
       </c>
       <c r="H20" s="84" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I20" s="84" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J20" s="84" t="s">
         <v>581</v>
@@ -6359,7 +6380,7 @@
       <c r="Q20" s="84"/>
       <c r="R20" s="84"/>
       <c r="S20" s="93"/>
-      <c r="V20" s="100"/>
+      <c r="V20" s="101"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
@@ -6367,7 +6388,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E21" s="80" t="s">
         <v>200</v>
@@ -6379,7 +6400,7 @@
         <v>230</v>
       </c>
       <c r="H21" s="80" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I21" s="80" t="s">
         <v>231</v>
@@ -6398,7 +6419,7 @@
       <c r="Q21" s="80"/>
       <c r="R21" s="80"/>
       <c r="S21" s="94"/>
-      <c r="V21" s="100"/>
+      <c r="V21" s="101"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
@@ -6413,10 +6434,10 @@
         <v>594</v>
       </c>
       <c r="H22" s="85" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I22" s="85" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J22" s="85" t="s">
         <v>582</v>
@@ -6430,7 +6451,7 @@
       <c r="Q22" s="85"/>
       <c r="R22" s="85"/>
       <c r="S22" s="96"/>
-      <c r="V22" s="101"/>
+      <c r="V22" s="102"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -6557,24 +6578,24 @@
         <v>668</v>
       </c>
       <c r="I28" s="84" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J28" s="84"/>
       <c r="K28" s="84" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L28" s="84" t="s">
         <v>642</v>
       </c>
       <c r="M28" s="84" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N28" s="84" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O28" s="84"/>
       <c r="P28" s="84" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Q28" s="84" t="s">
         <v>595</v>
@@ -6660,24 +6681,24 @@
         <v>669</v>
       </c>
       <c r="I30" s="85" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J30" s="85"/>
       <c r="K30" s="85" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L30" s="85" t="s">
         <v>643</v>
       </c>
       <c r="M30" s="85" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N30" s="85" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O30" s="85"/>
       <c r="P30" s="85" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q30" s="85" t="s">
         <v>596</v>
@@ -6726,7 +6747,7 @@
         <v>674</v>
       </c>
       <c r="G32" s="84" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H32" s="84" t="s">
         <v>597</v>
@@ -6739,7 +6760,7 @@
       </c>
       <c r="K32" s="84"/>
       <c r="L32" s="84" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M32" s="84" t="s">
         <v>678</v>
@@ -6755,7 +6776,7 @@
         <v>672</v>
       </c>
       <c r="R32" s="84" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="S32" s="93"/>
       <c r="U32" s="67" t="str">
@@ -6769,13 +6790,13 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="80" t="s">
+      <c r="D33" s="98" t="s">
         <v>241</v>
       </c>
       <c r="E33" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="80" t="s">
+      <c r="F33" s="98" t="s">
         <v>242</v>
       </c>
       <c r="G33" s="80" t="s">
@@ -6799,7 +6820,7 @@
       <c r="M33" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="N33" s="80" t="s">
+      <c r="N33" s="106" t="s">
         <v>247</v>
       </c>
       <c r="O33" s="80" t="s">
@@ -6827,7 +6848,7 @@
         <v>675</v>
       </c>
       <c r="G34" s="85" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H34" s="85" t="s">
         <v>598</v>
@@ -6840,7 +6861,7 @@
       </c>
       <c r="K34" s="85"/>
       <c r="L34" s="85" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M34" s="85" t="s">
         <v>679</v>
@@ -6888,7 +6909,7 @@
         <v>771</v>
       </c>
       <c r="F36" s="84" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G36" s="84" t="s">
         <v>685</v>
@@ -6901,7 +6922,7 @@
         <v>635</v>
       </c>
       <c r="K36" s="84" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L36" s="84"/>
       <c r="M36" s="84" t="s">
@@ -6917,7 +6938,7 @@
         <v>599</v>
       </c>
       <c r="Q36" s="84" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="R36" s="84"/>
       <c r="S36" s="93"/>
@@ -6931,7 +6952,7 @@
       <c r="D37" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="E37" s="80" t="s">
+      <c r="E37" s="98" t="s">
         <v>250</v>
       </c>
       <c r="F37" s="80" t="s">
@@ -6983,7 +7004,7 @@
         <v>772</v>
       </c>
       <c r="F38" s="85" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G38" s="85" t="s">
         <v>686</v>
@@ -6996,7 +7017,7 @@
         <v>636</v>
       </c>
       <c r="K38" s="85" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L38" s="85"/>
       <c r="M38" s="85" t="s">
@@ -7012,7 +7033,7 @@
         <v>689</v>
       </c>
       <c r="Q38" s="85" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R38" s="85"/>
       <c r="S38" s="96"/>
@@ -7041,20 +7062,20 @@
     <row r="40" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="56"/>
       <c r="D40" s="84" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E40" s="84" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F40" s="84" t="s">
         <v>690</v>
       </c>
       <c r="G40" s="84" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H40" s="84"/>
       <c r="I40" s="84" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J40" s="84" t="s">
         <v>692</v>
@@ -7063,11 +7084,11 @@
         <v>694</v>
       </c>
       <c r="L40" s="84" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M40" s="84"/>
       <c r="N40" s="84" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O40" s="84" t="s">
         <v>678</v>
@@ -7076,7 +7097,7 @@
         <v>696</v>
       </c>
       <c r="Q40" s="84" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="R40" s="84"/>
       <c r="S40" s="93"/>
@@ -7087,8 +7108,8 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="80" t="s">
-        <v>373</v>
+      <c r="D41" s="98" t="s">
+        <v>372</v>
       </c>
       <c r="E41" s="80" t="s">
         <v>256</v>
@@ -7108,7 +7129,7 @@
       <c r="J41" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="K41" s="80" t="s">
+      <c r="K41" s="106" t="s">
         <v>261</v>
       </c>
       <c r="L41" s="80" t="s">
@@ -7123,7 +7144,7 @@
       <c r="O41" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="P41" s="80" t="s">
+      <c r="P41" s="106" t="s">
         <v>264</v>
       </c>
       <c r="Q41" s="80" t="s">
@@ -7138,20 +7159,20 @@
     <row r="42" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="58"/>
       <c r="D42" s="85" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F42" s="85" t="s">
         <v>691</v>
       </c>
       <c r="G42" s="85" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H42" s="85"/>
       <c r="I42" s="85" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J42" s="85" t="s">
         <v>693</v>
@@ -7160,11 +7181,11 @@
         <v>695</v>
       </c>
       <c r="L42" s="85" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M42" s="85"/>
       <c r="N42" s="85" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O42" s="85" t="s">
         <v>679</v>
@@ -7173,7 +7194,7 @@
         <v>697</v>
       </c>
       <c r="Q42" s="85" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="R42" s="85"/>
       <c r="S42" s="96"/>
@@ -7212,10 +7233,10 @@
       </c>
       <c r="G44" s="84"/>
       <c r="H44" s="84" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I44" s="84" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J44" s="84"/>
       <c r="K44" s="84" t="s">
@@ -7223,13 +7244,13 @@
       </c>
       <c r="L44" s="84"/>
       <c r="M44" s="84" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N44" s="84" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O44" s="84" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P44" s="84"/>
       <c r="Q44" s="84" t="s">
@@ -7268,28 +7289,28 @@
         <v>267</v>
       </c>
       <c r="K45" s="80" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L45" s="80" t="s">
         <v>267</v>
       </c>
       <c r="M45" s="80" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N45" s="80" t="s">
         <v>203</v>
       </c>
       <c r="O45" s="80" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P45" s="80" t="s">
         <v>190</v>
       </c>
       <c r="Q45" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R45" s="80" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S45" s="94"/>
       <c r="V45" s="60"/>
@@ -7307,10 +7328,10 @@
       </c>
       <c r="G46" s="85"/>
       <c r="H46" s="85" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I46" s="85" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J46" s="85"/>
       <c r="K46" s="85" t="s">
@@ -7318,13 +7339,13 @@
       </c>
       <c r="L46" s="85"/>
       <c r="M46" s="85" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N46" s="85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O46" s="85" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P46" s="85"/>
       <c r="Q46" s="85" t="s">
@@ -7366,20 +7387,20 @@
       </c>
       <c r="F48" s="84"/>
       <c r="G48" s="84" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H48" s="84" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I48" s="84" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J48" s="84" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K48" s="84"/>
       <c r="L48" s="84" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M48" s="84" t="s">
         <v>644</v>
@@ -7388,13 +7409,13 @@
         <v>774</v>
       </c>
       <c r="O48" s="84" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P48" s="84" t="s">
         <v>602</v>
       </c>
       <c r="Q48" s="84" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="R48" s="84"/>
       <c r="S48" s="93"/>
@@ -7415,7 +7436,7 @@
         <v>190</v>
       </c>
       <c r="G49" s="80" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H49" s="80" t="s">
         <v>271</v>
@@ -7435,14 +7456,14 @@
       <c r="M49" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="N49" s="80" t="s">
+      <c r="N49" s="106" t="s">
         <v>274</v>
       </c>
       <c r="O49" s="80" t="s">
         <v>275</v>
       </c>
       <c r="P49" s="80" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q49" s="80" t="s">
         <v>276</v>
@@ -7463,20 +7484,20 @@
       </c>
       <c r="F50" s="85"/>
       <c r="G50" s="85" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H50" s="85" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I50" s="85" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J50" s="85" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K50" s="85"/>
       <c r="L50" s="85" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M50" s="85" t="s">
         <v>645</v>
@@ -7485,13 +7506,13 @@
         <v>775</v>
       </c>
       <c r="O50" s="85" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="P50" s="85" t="s">
         <v>603</v>
       </c>
       <c r="Q50" s="85" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R50" s="85"/>
       <c r="S50" s="96"/>
@@ -7539,23 +7560,23 @@
         <v>712</v>
       </c>
       <c r="K52" s="84" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L52" s="84" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M52" s="84"/>
       <c r="N52" s="84" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O52" s="84" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P52" s="84" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q52" s="84" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="R52" s="84"/>
       <c r="S52" s="93"/>
@@ -7576,13 +7597,13 @@
         <v>279</v>
       </c>
       <c r="G53" s="81" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H53" s="81" t="s">
         <v>190</v>
       </c>
       <c r="I53" s="80" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J53" s="80" t="s">
         <v>280</v>
@@ -7606,7 +7627,7 @@
         <v>284</v>
       </c>
       <c r="Q53" s="80" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="R53" s="80" t="s">
         <v>190</v>
@@ -7636,23 +7657,23 @@
         <v>713</v>
       </c>
       <c r="K54" s="85" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L54" s="85" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M54" s="85"/>
       <c r="N54" s="85" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O54" s="85" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P54" s="85" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="Q54" s="85" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="R54" s="85"/>
       <c r="S54" s="96"/>
@@ -7687,7 +7708,7 @@
         <v>716</v>
       </c>
       <c r="F56" s="84" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G56" s="84" t="s">
         <v>718</v>
@@ -7703,11 +7724,11 @@
         <v>587</v>
       </c>
       <c r="L56" s="84" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M56" s="84"/>
       <c r="N56" s="84" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O56" s="84" t="s">
         <v>606</v>
@@ -7717,7 +7738,7 @@
       </c>
       <c r="Q56" s="84"/>
       <c r="R56" s="84" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="S56" s="93"/>
       <c r="V56" s="60"/>
@@ -7728,28 +7749,28 @@
         <v>14</v>
       </c>
       <c r="D57" s="80" t="s">
+        <v>383</v>
+      </c>
+      <c r="E57" s="106" t="s">
         <v>384</v>
-      </c>
-      <c r="E57" s="80" t="s">
-        <v>385</v>
       </c>
       <c r="F57" s="80" t="s">
         <v>256</v>
       </c>
       <c r="G57" s="81" t="s">
-        <v>386</v>
-      </c>
-      <c r="H57" s="80" t="s">
-        <v>286</v>
+        <v>385</v>
+      </c>
+      <c r="H57" s="81" t="s">
+        <v>796</v>
       </c>
       <c r="I57" s="80" t="s">
         <v>228</v>
       </c>
       <c r="J57" s="80" t="s">
+        <v>387</v>
+      </c>
+      <c r="K57" s="80" t="s">
         <v>388</v>
-      </c>
-      <c r="K57" s="80" t="s">
-        <v>389</v>
       </c>
       <c r="L57" s="80" t="s">
         <v>193</v>
@@ -7758,19 +7779,19 @@
         <v>190</v>
       </c>
       <c r="N57" s="80" t="s">
+        <v>286</v>
+      </c>
+      <c r="O57" s="80" t="s">
+        <v>389</v>
+      </c>
+      <c r="P57" s="80" t="s">
         <v>287</v>
-      </c>
-      <c r="O57" s="80" t="s">
-        <v>390</v>
-      </c>
-      <c r="P57" s="80" t="s">
-        <v>288</v>
       </c>
       <c r="Q57" s="80" t="s">
         <v>190</v>
       </c>
       <c r="R57" s="80" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S57" s="94"/>
       <c r="V57" s="60"/>
@@ -7784,7 +7805,7 @@
         <v>717</v>
       </c>
       <c r="F58" s="85" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G58" s="85" t="s">
         <v>719</v>
@@ -7800,11 +7821,11 @@
         <v>588</v>
       </c>
       <c r="L58" s="85" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M58" s="85"/>
       <c r="N58" s="85" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O58" s="85" t="s">
         <v>607</v>
@@ -7814,7 +7835,7 @@
       </c>
       <c r="Q58" s="85"/>
       <c r="R58" s="85" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="S58" s="96"/>
       <c r="V58" s="60"/>
@@ -7848,7 +7869,7 @@
         <v>682</v>
       </c>
       <c r="F60" s="84" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G60" s="84"/>
       <c r="H60" s="84" t="s">
@@ -7858,27 +7879,27 @@
         <v>728</v>
       </c>
       <c r="J60" s="84" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K60" s="84"/>
       <c r="L60" s="84" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M60" s="84" t="s">
         <v>608</v>
       </c>
       <c r="N60" s="84" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O60" s="84" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P60" s="84"/>
       <c r="Q60" s="84" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="R60" s="84" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="S60" s="93"/>
       <c r="V60" s="60"/>
@@ -7888,8 +7909,8 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="80" t="s">
-        <v>290</v>
+      <c r="D61" s="106" t="s">
+        <v>289</v>
       </c>
       <c r="E61" s="80" t="s">
         <v>248</v>
@@ -7901,10 +7922,10 @@
         <v>206</v>
       </c>
       <c r="H61" s="80" t="s">
+        <v>290</v>
+      </c>
+      <c r="I61" s="80" t="s">
         <v>291</v>
-      </c>
-      <c r="I61" s="80" t="s">
-        <v>292</v>
       </c>
       <c r="J61" s="80" t="s">
         <v>203</v>
@@ -7916,22 +7937,22 @@
         <v>235</v>
       </c>
       <c r="M61" s="80" t="s">
+        <v>391</v>
+      </c>
+      <c r="N61" s="80" t="s">
         <v>392</v>
       </c>
-      <c r="N61" s="80" t="s">
-        <v>393</v>
-      </c>
       <c r="O61" s="80" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P61" s="80" t="s">
         <v>190</v>
       </c>
       <c r="Q61" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="R61" s="80" t="s">
         <v>294</v>
-      </c>
-      <c r="R61" s="80" t="s">
-        <v>295</v>
       </c>
       <c r="S61" s="94"/>
       <c r="V61" s="60"/>
@@ -7945,7 +7966,7 @@
         <v>683</v>
       </c>
       <c r="F62" s="85" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G62" s="85"/>
       <c r="H62" s="85" t="s">
@@ -7955,27 +7976,27 @@
         <v>729</v>
       </c>
       <c r="J62" s="85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K62" s="85"/>
       <c r="L62" s="85" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M62" s="85" t="s">
         <v>609</v>
       </c>
       <c r="N62" s="85" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O62" s="85" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P62" s="85"/>
       <c r="Q62" s="85" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="R62" s="85" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="S62" s="96"/>
       <c r="V62" s="60"/>
@@ -8007,11 +8028,11 @@
         <v>610</v>
       </c>
       <c r="F64" s="84" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G64" s="84"/>
       <c r="H64" s="84" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I64" s="84" t="s">
         <v>730</v>
@@ -8024,7 +8045,7 @@
         <v>644</v>
       </c>
       <c r="M64" s="84" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N64" s="84" t="s">
         <v>595</v>
@@ -8033,11 +8054,11 @@
         <v>734</v>
       </c>
       <c r="P64" s="84" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Q64" s="84"/>
       <c r="R64" s="84" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="S64" s="93"/>
       <c r="V64" s="60"/>
@@ -8051,7 +8072,7 @@
         <v>267</v>
       </c>
       <c r="E65" s="80" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F65" s="80" t="s">
         <v>270</v>
@@ -8063,13 +8084,13 @@
         <v>276</v>
       </c>
       <c r="I65" s="80" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J65" s="80" t="s">
         <v>228</v>
       </c>
       <c r="K65" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L65" s="80" t="s">
         <v>189</v>
@@ -8081,7 +8102,7 @@
         <v>239</v>
       </c>
       <c r="O65" s="80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P65" s="80" t="s">
         <v>193</v>
@@ -8090,7 +8111,7 @@
         <v>190</v>
       </c>
       <c r="R65" s="80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S65" s="94"/>
       <c r="V65" s="60"/>
@@ -8102,11 +8123,11 @@
         <v>611</v>
       </c>
       <c r="F66" s="85" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G66" s="85"/>
       <c r="H66" s="85" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I66" s="85" t="s">
         <v>731</v>
@@ -8119,7 +8140,7 @@
         <v>645</v>
       </c>
       <c r="M66" s="85" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N66" s="85" t="s">
         <v>596</v>
@@ -8128,11 +8149,11 @@
         <v>735</v>
       </c>
       <c r="P66" s="85" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Q66" s="85"/>
       <c r="R66" s="85" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="S66" s="96"/>
       <c r="V66" s="60"/>
@@ -8160,20 +8181,20 @@
     <row r="68" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="56"/>
       <c r="D68" s="84" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E68" s="84" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F68" s="84" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G68" s="84"/>
       <c r="H68" s="84" t="s">
         <v>718</v>
       </c>
       <c r="I68" s="84" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J68" s="84"/>
       <c r="K68" s="84"/>
@@ -8181,19 +8202,19 @@
         <v>658</v>
       </c>
       <c r="M68" s="84" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N68" s="84" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O68" s="84" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P68" s="84" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Q68" s="84" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="R68" s="84"/>
       <c r="S68" s="93"/>
@@ -8208,10 +8229,10 @@
         <v>275</v>
       </c>
       <c r="E69" s="80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F69" s="80" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G69" s="81" t="s">
         <v>228</v>
@@ -8220,31 +8241,31 @@
         <v>285</v>
       </c>
       <c r="I69" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="J69" s="80" t="s">
         <v>299</v>
       </c>
-      <c r="J69" s="80" t="s">
+      <c r="K69" s="80" t="s">
         <v>300</v>
       </c>
-      <c r="K69" s="80" t="s">
+      <c r="L69" s="80" t="s">
         <v>301</v>
       </c>
-      <c r="L69" s="80" t="s">
+      <c r="M69" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="M69" s="80" t="s">
+      <c r="N69" s="80" t="s">
+        <v>397</v>
+      </c>
+      <c r="O69" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="N69" s="80" t="s">
-        <v>398</v>
-      </c>
-      <c r="O69" s="80" t="s">
+      <c r="P69" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="P69" s="80" t="s">
+      <c r="Q69" s="80" t="s">
         <v>305</v>
-      </c>
-      <c r="Q69" s="80" t="s">
-        <v>306</v>
       </c>
       <c r="R69" s="80" t="s">
         <v>190</v>
@@ -8255,20 +8276,20 @@
     <row r="70" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="58"/>
       <c r="D70" s="85" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E70" s="85" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F70" s="85" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G70" s="85"/>
       <c r="H70" s="85" t="s">
         <v>719</v>
       </c>
       <c r="I70" s="85" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J70" s="85"/>
       <c r="K70" s="85"/>
@@ -8276,19 +8297,19 @@
         <v>659</v>
       </c>
       <c r="M70" s="85" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N70" s="85" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O70" s="85" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P70" s="85" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q70" s="85" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="R70" s="85"/>
       <c r="S70" s="96"/>
@@ -8326,26 +8347,26 @@
         <v>734</v>
       </c>
       <c r="G72" s="84" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H72" s="84" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I72" s="84" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J72" s="84" t="s">
         <v>734</v>
       </c>
       <c r="K72" s="84" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L72" s="84" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M72" s="84"/>
       <c r="N72" s="84" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O72" s="84" t="s">
         <v>664</v>
@@ -8354,7 +8375,7 @@
         <v>783</v>
       </c>
       <c r="Q72" s="84" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R72" s="84"/>
       <c r="S72" s="93"/>
@@ -8366,16 +8387,16 @@
         <v>18</v>
       </c>
       <c r="D73" s="80" t="s">
+        <v>306</v>
+      </c>
+      <c r="E73" s="80" t="s">
         <v>307</v>
       </c>
-      <c r="E73" s="80" t="s">
+      <c r="F73" s="80" t="s">
         <v>308</v>
       </c>
-      <c r="F73" s="80" t="s">
+      <c r="G73" s="81" t="s">
         <v>309</v>
-      </c>
-      <c r="G73" s="81" t="s">
-        <v>310</v>
       </c>
       <c r="H73" s="80" t="s">
         <v>193</v>
@@ -8384,28 +8405,28 @@
         <v>275</v>
       </c>
       <c r="J73" s="80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K73" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="L73" s="80" t="s">
         <v>311</v>
-      </c>
-      <c r="L73" s="80" t="s">
-        <v>312</v>
       </c>
       <c r="M73" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="N73" s="80" t="s">
-        <v>313</v>
+      <c r="N73" s="106" t="s">
+        <v>312</v>
       </c>
       <c r="O73" s="80" t="s">
         <v>229</v>
       </c>
       <c r="P73" s="80" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q73" s="80" t="s">
         <v>314</v>
-      </c>
-      <c r="Q73" s="80" t="s">
-        <v>315</v>
       </c>
       <c r="R73" s="80" t="s">
         <v>206</v>
@@ -8428,23 +8449,23 @@
         <v>782</v>
       </c>
       <c r="H74" s="85" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I74" s="85" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J74" s="85" t="s">
         <v>735</v>
       </c>
       <c r="K74" s="85" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L74" s="85" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M74" s="85"/>
       <c r="N74" s="85" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O74" s="85" t="s">
         <v>665</v>
@@ -8453,7 +8474,7 @@
         <v>632</v>
       </c>
       <c r="Q74" s="85" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R74" s="85"/>
       <c r="S74" s="96"/>
@@ -8482,19 +8503,19 @@
     <row r="76" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="56"/>
       <c r="D76" s="84" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E76" s="84" t="s">
         <v>784</v>
       </c>
       <c r="F76" s="84" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G76" s="84" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H76" s="84" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I76" s="84" t="s">
         <v>612</v>
@@ -8502,7 +8523,7 @@
       <c r="J76" s="84"/>
       <c r="K76" s="84"/>
       <c r="L76" s="84" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M76" s="84"/>
       <c r="N76" s="84" t="s">
@@ -8512,10 +8533,10 @@
         <v>736</v>
       </c>
       <c r="P76" s="84" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Q76" s="84" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R76" s="84"/>
       <c r="S76" s="93"/>
@@ -8527,10 +8548,10 @@
         <v>19</v>
       </c>
       <c r="D77" s="80" t="s">
+        <v>315</v>
+      </c>
+      <c r="E77" s="80" t="s">
         <v>316</v>
-      </c>
-      <c r="E77" s="80" t="s">
-        <v>317</v>
       </c>
       <c r="F77" s="80" t="s">
         <v>281</v>
@@ -8539,37 +8560,37 @@
         <v>193</v>
       </c>
       <c r="H77" s="80" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I77" s="80" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J77" s="80" t="s">
         <v>228</v>
       </c>
       <c r="K77" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="L77" s="80" t="s">
+        <v>288</v>
+      </c>
+      <c r="M77" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="N77" s="80" t="s">
+        <v>399</v>
+      </c>
+      <c r="O77" s="80" t="s">
         <v>319</v>
       </c>
-      <c r="L77" s="80" t="s">
-        <v>289</v>
-      </c>
-      <c r="M77" s="80" t="s">
-        <v>301</v>
-      </c>
-      <c r="N77" s="80" t="s">
-        <v>400</v>
-      </c>
-      <c r="O77" s="80" t="s">
+      <c r="P77" s="80" t="s">
         <v>320</v>
       </c>
-      <c r="P77" s="80" t="s">
+      <c r="Q77" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="R77" s="80" t="s">
         <v>321</v>
-      </c>
-      <c r="Q77" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="R77" s="80" t="s">
-        <v>322</v>
       </c>
       <c r="S77" s="94"/>
       <c r="V77" s="60"/>
@@ -8577,19 +8598,19 @@
     <row r="78" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="58"/>
       <c r="D78" s="85" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E78" s="85" t="s">
         <v>785</v>
       </c>
       <c r="F78" s="85" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G78" s="85" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H78" s="85" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I78" s="85" t="s">
         <v>613</v>
@@ -8597,20 +8618,20 @@
       <c r="J78" s="85"/>
       <c r="K78" s="85"/>
       <c r="L78" s="85" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M78" s="85"/>
       <c r="N78" s="85" t="s">
         <v>615</v>
       </c>
       <c r="O78" s="85" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P78" s="85" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q78" s="85" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R78" s="85"/>
       <c r="S78" s="96"/>
@@ -8640,10 +8661,10 @@
       <c r="B80" s="56"/>
       <c r="D80" s="84"/>
       <c r="E80" s="84" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F80" s="84" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G80" s="84" t="s">
         <v>616</v>
@@ -8652,28 +8673,28 @@
         <v>595</v>
       </c>
       <c r="I80" s="84" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J80" s="84"/>
       <c r="K80" s="84" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L80" s="84" t="s">
         <v>737</v>
       </c>
       <c r="M80" s="84" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N80" s="84"/>
       <c r="O80" s="84" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P80" s="84"/>
       <c r="Q80" s="84" t="s">
         <v>734</v>
       </c>
       <c r="R80" s="84" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="S80" s="93"/>
       <c r="V80" s="60"/>
@@ -8684,22 +8705,22 @@
         <v>20</v>
       </c>
       <c r="D81" s="80" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E81" s="80" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F81" s="80" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G81" s="80" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H81" s="80" t="s">
         <v>239</v>
       </c>
       <c r="I81" s="80" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J81" s="80" t="s">
         <v>190</v>
@@ -8708,10 +8729,10 @@
         <v>217</v>
       </c>
       <c r="L81" s="80" t="s">
+        <v>323</v>
+      </c>
+      <c r="M81" s="80" t="s">
         <v>324</v>
-      </c>
-      <c r="M81" s="80" t="s">
-        <v>325</v>
       </c>
       <c r="N81" s="80" t="s">
         <v>267</v>
@@ -8720,10 +8741,10 @@
         <v>186</v>
       </c>
       <c r="P81" s="80" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q81" s="80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R81" s="80" t="s">
         <v>193</v>
@@ -8735,10 +8756,10 @@
       <c r="B82" s="58"/>
       <c r="D82" s="85"/>
       <c r="E82" s="85" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F82" s="85" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G82" s="85" t="s">
         <v>617</v>
@@ -8747,28 +8768,28 @@
         <v>596</v>
       </c>
       <c r="I82" s="85" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J82" s="85"/>
       <c r="K82" s="85" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L82" s="85" t="s">
         <v>738</v>
       </c>
       <c r="M82" s="85" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N82" s="85"/>
       <c r="O82" s="85" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P82" s="85"/>
       <c r="Q82" s="85" t="s">
         <v>735</v>
       </c>
       <c r="R82" s="85" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="S82" s="96"/>
       <c r="V82" s="60"/>
@@ -8796,10 +8817,10 @@
     <row r="84" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="56"/>
       <c r="D84" s="84" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E84" s="84" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F84" s="84" t="s">
         <v>766</v>
@@ -8808,30 +8829,30 @@
         <v>726</v>
       </c>
       <c r="H84" s="84" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I84" s="84" t="s">
         <v>724</v>
       </c>
       <c r="J84" s="84" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K84" s="84"/>
       <c r="L84" s="84" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M84" s="84" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N84" s="84" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O84" s="84"/>
       <c r="P84" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q84" s="84" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="R84" s="84" t="s">
         <v>618</v>
@@ -8845,7 +8866,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="80" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E85" s="80" t="s">
         <v>237</v>
@@ -8854,13 +8875,13 @@
         <v>196</v>
       </c>
       <c r="G85" s="81" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H85" s="80" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I85" s="80" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J85" s="80" t="s">
         <v>273</v>
@@ -8869,25 +8890,25 @@
         <v>190</v>
       </c>
       <c r="L85" s="80" t="s">
+        <v>327</v>
+      </c>
+      <c r="M85" s="80" t="s">
+        <v>402</v>
+      </c>
+      <c r="N85" s="80" t="s">
         <v>328</v>
-      </c>
-      <c r="M85" s="80" t="s">
-        <v>403</v>
-      </c>
-      <c r="N85" s="80" t="s">
-        <v>329</v>
       </c>
       <c r="O85" s="80" t="s">
         <v>228</v>
       </c>
       <c r="P85" s="80" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q85" s="80" t="s">
         <v>193</v>
       </c>
       <c r="R85" s="80" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S85" s="94"/>
       <c r="V85" s="60"/>
@@ -8895,10 +8916,10 @@
     <row r="86" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="58"/>
       <c r="D86" s="85" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E86" s="85" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F86" s="85" t="s">
         <v>767</v>
@@ -8907,30 +8928,30 @@
         <v>727</v>
       </c>
       <c r="H86" s="85" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I86" s="85" t="s">
         <v>725</v>
       </c>
       <c r="J86" s="85" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K86" s="85"/>
       <c r="L86" s="85" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M86" s="85" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N86" s="85" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O86" s="85"/>
       <c r="P86" s="85" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Q86" s="85" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="R86" s="85" t="s">
         <v>619</v>
@@ -8967,23 +8988,23 @@
         <v>786</v>
       </c>
       <c r="F88" s="84" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G88" s="84" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H88" s="84" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I88" s="84"/>
       <c r="J88" s="84" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K88" s="84" t="s">
         <v>783</v>
       </c>
       <c r="L88" s="84" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M88" s="84" t="s">
         <v>730</v>
@@ -8996,7 +9017,7 @@
         <v>654</v>
       </c>
       <c r="Q88" s="84" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="R88" s="84"/>
       <c r="S88" s="93"/>
@@ -9011,43 +9032,43 @@
         <v>229</v>
       </c>
       <c r="E89" s="80" t="s">
+        <v>330</v>
+      </c>
+      <c r="F89" s="80" t="s">
         <v>331</v>
-      </c>
-      <c r="F89" s="80" t="s">
-        <v>332</v>
       </c>
       <c r="G89" s="80" t="s">
         <v>231</v>
       </c>
       <c r="H89" s="80" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I89" s="80" t="s">
         <v>190</v>
       </c>
       <c r="J89" s="80" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K89" s="80" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L89" s="80" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M89" s="80" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N89" s="80" t="s">
         <v>228</v>
       </c>
       <c r="O89" s="80" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P89" s="80" t="s">
         <v>214</v>
       </c>
       <c r="Q89" s="80" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R89" s="80" t="s">
         <v>190</v>
@@ -9064,23 +9085,23 @@
         <v>787</v>
       </c>
       <c r="F90" s="85" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G90" s="85" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H90" s="85" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I90" s="85"/>
       <c r="J90" s="85" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K90" s="85" t="s">
         <v>632</v>
       </c>
       <c r="L90" s="85" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M90" s="85" t="s">
         <v>731</v>
@@ -9093,7 +9114,7 @@
         <v>655</v>
       </c>
       <c r="Q90" s="85" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R90" s="85"/>
       <c r="S90" s="96"/>
@@ -9122,7 +9143,7 @@
     <row r="92" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="56"/>
       <c r="D92" s="84" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E92" s="84" t="s">
         <v>726</v>
@@ -9135,30 +9156,30 @@
         <v>644</v>
       </c>
       <c r="I92" s="84" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J92" s="84" t="s">
         <v>741</v>
       </c>
       <c r="K92" s="84" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L92" s="84"/>
       <c r="M92" s="84"/>
       <c r="N92" s="84" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O92" s="84" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P92" s="84" t="s">
         <v>766</v>
       </c>
       <c r="Q92" s="84" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="R92" s="84" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="S92" s="93"/>
       <c r="V92" s="60"/>
@@ -9169,16 +9190,16 @@
         <v>23</v>
       </c>
       <c r="D93" s="80" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E93" s="80" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F93" s="80" t="s">
         <v>228</v>
       </c>
       <c r="G93" s="81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H93" s="80" t="s">
         <v>189</v>
@@ -9187,22 +9208,22 @@
         <v>193</v>
       </c>
       <c r="J93" s="80" t="s">
+        <v>335</v>
+      </c>
+      <c r="K93" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="L93" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="M93" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="N93" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="O93" s="80" t="s">
         <v>336</v>
-      </c>
-      <c r="K93" s="80" t="s">
-        <v>299</v>
-      </c>
-      <c r="L93" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="M93" s="80" t="s">
-        <v>301</v>
-      </c>
-      <c r="N93" s="80" t="s">
-        <v>313</v>
-      </c>
-      <c r="O93" s="80" t="s">
-        <v>337</v>
       </c>
       <c r="P93" s="80" t="s">
         <v>196</v>
@@ -9219,7 +9240,7 @@
     <row r="94" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="58"/>
       <c r="D94" s="85" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E94" s="85" t="s">
         <v>727</v>
@@ -9232,30 +9253,30 @@
         <v>645</v>
       </c>
       <c r="I94" s="85" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J94" s="85" t="s">
         <v>742</v>
       </c>
       <c r="K94" s="85" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L94" s="85"/>
       <c r="M94" s="85"/>
       <c r="N94" s="85" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O94" s="85" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="P94" s="85" t="s">
         <v>767</v>
       </c>
       <c r="Q94" s="85" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="R94" s="85" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="S94" s="96"/>
       <c r="V94" s="60"/>
@@ -9310,16 +9331,16 @@
         <v>24</v>
       </c>
       <c r="D97" s="80" t="s">
+        <v>337</v>
+      </c>
+      <c r="E97" s="80" t="s">
         <v>338</v>
-      </c>
-      <c r="E97" s="80" t="s">
-        <v>339</v>
       </c>
       <c r="F97" s="80" t="s">
         <v>228</v>
       </c>
       <c r="G97" s="81" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H97" s="80"/>
       <c r="I97" s="80"/>
@@ -9467,7 +9488,7 @@
       <c r="D104" s="84"/>
       <c r="E104" s="84"/>
       <c r="F104" s="84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G104" s="84" t="s">
         <v>783</v>
@@ -9477,23 +9498,23 @@
         <v>642</v>
       </c>
       <c r="J104" s="84" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K104" s="84" t="s">
         <v>680</v>
       </c>
       <c r="L104" s="84"/>
       <c r="M104" s="84" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N104" s="84" t="s">
         <v>620</v>
       </c>
       <c r="O104" s="84" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P104" s="84" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Q104" s="84"/>
       <c r="R104" s="84" t="s">
@@ -9514,10 +9535,10 @@
         <v>185</v>
       </c>
       <c r="F105" s="80" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G105" s="81" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H105" s="80" t="s">
         <v>190</v>
@@ -9535,13 +9556,13 @@
         <v>190</v>
       </c>
       <c r="M105" s="80" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N105" s="80" t="s">
+        <v>405</v>
+      </c>
+      <c r="O105" s="80" t="s">
         <v>406</v>
-      </c>
-      <c r="O105" s="80" t="s">
-        <v>407</v>
       </c>
       <c r="P105" s="80" t="s">
         <v>202</v>
@@ -9550,7 +9571,7 @@
         <v>190</v>
       </c>
       <c r="R105" s="80" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S105" s="94"/>
       <c r="V105" s="60"/>
@@ -9560,7 +9581,7 @@
       <c r="D106" s="85"/>
       <c r="E106" s="85"/>
       <c r="F106" s="85" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G106" s="85" t="s">
         <v>632</v>
@@ -9570,23 +9591,23 @@
         <v>643</v>
       </c>
       <c r="J106" s="85" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K106" s="85" t="s">
         <v>681</v>
       </c>
       <c r="L106" s="85"/>
       <c r="M106" s="85" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N106" s="85" t="s">
         <v>621</v>
       </c>
       <c r="O106" s="85" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P106" s="85" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q106" s="85"/>
       <c r="R106" s="85" t="s">
@@ -9621,27 +9642,27 @@
         <v>790</v>
       </c>
       <c r="E108" s="84" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F108" s="84" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G108" s="84"/>
       <c r="H108" s="84" t="s">
+        <v>549</v>
+      </c>
+      <c r="I108" s="84" t="s">
         <v>550</v>
-      </c>
-      <c r="I108" s="84" t="s">
-        <v>551</v>
       </c>
       <c r="J108" s="84" t="s">
         <v>622</v>
       </c>
       <c r="K108" s="84"/>
       <c r="L108" s="84" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M108" s="84" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N108" s="84" t="s">
         <v>746</v>
@@ -9665,10 +9686,10 @@
         <v>27</v>
       </c>
       <c r="D109" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="E109" s="80" t="s">
         <v>342</v>
-      </c>
-      <c r="E109" s="80" t="s">
-        <v>343</v>
       </c>
       <c r="F109" s="80" t="s">
         <v>203</v>
@@ -9677,37 +9698,37 @@
         <v>228</v>
       </c>
       <c r="H109" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="I109" s="80" t="s">
         <v>344</v>
       </c>
-      <c r="I109" s="80" t="s">
-        <v>345</v>
-      </c>
       <c r="J109" s="80" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K109" s="80" t="s">
         <v>190</v>
       </c>
       <c r="L109" s="80" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M109" s="80" t="s">
         <v>187</v>
       </c>
       <c r="N109" s="80" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O109" s="80" t="s">
         <v>190</v>
       </c>
       <c r="P109" s="80" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q109" s="80" t="s">
         <v>280</v>
       </c>
       <c r="R109" s="80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S109" s="94"/>
       <c r="V109" s="60"/>
@@ -9718,27 +9739,27 @@
         <v>791</v>
       </c>
       <c r="E110" s="85" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F110" s="85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G110" s="85"/>
       <c r="H110" s="85" t="s">
         <v>745</v>
       </c>
       <c r="I110" s="85" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J110" s="85" t="s">
         <v>623</v>
       </c>
       <c r="K110" s="85"/>
       <c r="L110" s="85" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M110" s="85" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N110" s="85" t="s">
         <v>747</v>
@@ -9780,7 +9801,7 @@
       <c r="B112" s="56"/>
       <c r="D112" s="84"/>
       <c r="E112" s="84" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F112" s="84" t="s">
         <v>746</v>
@@ -9792,29 +9813,29 @@
         <v>748</v>
       </c>
       <c r="I112" s="84" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J112" s="84" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K112" s="84" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L112" s="84" t="s">
         <v>774</v>
       </c>
       <c r="M112" s="84"/>
       <c r="N112" s="84" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="O112" s="84" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P112" s="84" t="s">
         <v>724</v>
       </c>
       <c r="Q112" s="84" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="R112" s="84"/>
       <c r="S112" s="93"/>
@@ -9832,19 +9853,19 @@
         <v>187</v>
       </c>
       <c r="F113" s="80" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G113" s="80" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H113" s="80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I113" s="80" t="s">
         <v>193</v>
       </c>
       <c r="J113" s="80" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K113" s="80" t="s">
         <v>231</v>
@@ -9856,16 +9877,16 @@
         <v>190</v>
       </c>
       <c r="N113" s="80" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O113" s="80" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P113" s="80" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q113" s="80" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R113" s="80" t="s">
         <v>190</v>
@@ -9877,7 +9898,7 @@
       <c r="B114" s="58"/>
       <c r="D114" s="85"/>
       <c r="E114" s="85" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F114" s="85" t="s">
         <v>747</v>
@@ -9889,29 +9910,29 @@
         <v>749</v>
       </c>
       <c r="I114" s="85" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J114" s="85" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K114" s="85" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L114" s="85" t="s">
         <v>775</v>
       </c>
       <c r="M114" s="85"/>
       <c r="N114" s="85" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="O114" s="85" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P114" s="85" t="s">
         <v>725</v>
       </c>
       <c r="Q114" s="85" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="R114" s="85"/>
       <c r="S114" s="96"/>
@@ -9940,13 +9961,13 @@
     <row r="116" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="56"/>
       <c r="D116" s="84" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E116" s="84" t="s">
         <v>750</v>
       </c>
       <c r="F116" s="84" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G116" s="84" t="s">
         <v>664</v>
@@ -9955,7 +9976,7 @@
         <v>642</v>
       </c>
       <c r="I116" s="84" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J116" s="84"/>
       <c r="K116" s="84"/>
@@ -9975,13 +9996,13 @@
         <v>29</v>
       </c>
       <c r="D117" s="80" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E117" s="80" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F117" s="80" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G117" s="81" t="s">
         <v>229</v>
@@ -10009,13 +10030,13 @@
     <row r="118" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="58"/>
       <c r="D118" s="85" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E118" s="85" t="s">
         <v>751</v>
       </c>
       <c r="F118" s="85" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G118" s="85" t="s">
         <v>665</v>
@@ -10024,7 +10045,7 @@
         <v>643</v>
       </c>
       <c r="I118" s="85" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J118" s="85"/>
       <c r="K118" s="85"/>
@@ -10158,14 +10179,14 @@
         <v>734</v>
       </c>
       <c r="J124" s="84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K124" s="84"/>
       <c r="L124" s="84" t="s">
         <v>704</v>
       </c>
       <c r="M124" s="84" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N124" s="84" t="s">
         <v>734</v>
@@ -10175,10 +10196,10 @@
       </c>
       <c r="P124" s="84"/>
       <c r="Q124" s="84" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="R124" s="84" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S124" s="93"/>
       <c r="V124" s="60"/>
@@ -10195,34 +10216,34 @@
         <v>185</v>
       </c>
       <c r="F125" s="80" t="s">
+        <v>351</v>
+      </c>
+      <c r="G125" s="81" t="s">
         <v>352</v>
       </c>
-      <c r="G125" s="81" t="s">
+      <c r="H125" s="80" t="s">
         <v>353</v>
       </c>
-      <c r="H125" s="80" t="s">
+      <c r="I125" s="80" t="s">
+        <v>308</v>
+      </c>
+      <c r="J125" s="80" t="s">
         <v>354</v>
-      </c>
-      <c r="I125" s="80" t="s">
-        <v>309</v>
-      </c>
-      <c r="J125" s="80" t="s">
-        <v>355</v>
       </c>
       <c r="K125" s="80" t="s">
         <v>190</v>
       </c>
       <c r="L125" s="80" t="s">
+        <v>355</v>
+      </c>
+      <c r="M125" s="80" t="s">
         <v>356</v>
       </c>
-      <c r="M125" s="80" t="s">
+      <c r="N125" s="80" t="s">
         <v>357</v>
       </c>
-      <c r="N125" s="80" t="s">
-        <v>358</v>
-      </c>
       <c r="O125" s="80" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P125" s="80" t="s">
         <v>190</v>
@@ -10253,14 +10274,14 @@
         <v>735</v>
       </c>
       <c r="J126" s="85" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K126" s="85"/>
       <c r="L126" s="85" t="s">
         <v>705</v>
       </c>
       <c r="M126" s="85" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N126" s="85" t="s">
         <v>735</v>
@@ -10270,10 +10291,10 @@
       </c>
       <c r="P126" s="85"/>
       <c r="Q126" s="85" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="R126" s="85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S126" s="96"/>
       <c r="V126" s="60"/>
@@ -10305,10 +10326,10 @@
         <v>754</v>
       </c>
       <c r="F128" s="84" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G128" s="84" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H128" s="84" t="s">
         <v>774</v>
@@ -10318,24 +10339,24 @@
         <v>756</v>
       </c>
       <c r="K128" s="84" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L128" s="84"/>
       <c r="M128" s="84" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N128" s="84" t="s">
         <v>639</v>
       </c>
       <c r="O128" s="84" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="P128" s="84"/>
       <c r="Q128" s="84" t="s">
         <v>758</v>
       </c>
       <c r="R128" s="84" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="S128" s="93"/>
       <c r="V128" s="60"/>
@@ -10348,14 +10369,14 @@
       <c r="D129" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="E129" s="80" t="s">
+      <c r="E129" s="106" t="s">
         <v>629</v>
       </c>
       <c r="F129" s="80" t="s">
         <v>256</v>
       </c>
       <c r="G129" s="81" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H129" s="80" t="s">
         <v>274</v>
@@ -10364,31 +10385,31 @@
         <v>190</v>
       </c>
       <c r="J129" s="80" t="s">
+        <v>359</v>
+      </c>
+      <c r="K129" s="80" t="s">
         <v>360</v>
-      </c>
-      <c r="K129" s="80" t="s">
-        <v>361</v>
       </c>
       <c r="L129" s="80" t="s">
         <v>190</v>
       </c>
       <c r="M129" s="80" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N129" s="80" t="s">
+        <v>361</v>
+      </c>
+      <c r="O129" s="80" t="s">
         <v>362</v>
-      </c>
-      <c r="O129" s="80" t="s">
-        <v>363</v>
       </c>
       <c r="P129" s="80" t="s">
         <v>228</v>
       </c>
       <c r="Q129" s="80" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R129" s="80" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S129" s="94"/>
       <c r="V129" s="60"/>
@@ -10400,10 +10421,10 @@
         <v>755</v>
       </c>
       <c r="F130" s="85" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G130" s="85" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H130" s="85" t="s">
         <v>775</v>
@@ -10413,24 +10434,24 @@
         <v>757</v>
       </c>
       <c r="K130" s="85" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L130" s="85"/>
       <c r="M130" s="85" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N130" s="85" t="s">
         <v>640</v>
       </c>
       <c r="O130" s="85" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P130" s="85"/>
       <c r="Q130" s="85" t="s">
         <v>759</v>
       </c>
       <c r="R130" s="85" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="S130" s="96"/>
       <c r="V130" s="60"/>
@@ -10458,16 +10479,16 @@
     <row r="132" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="56"/>
       <c r="D132" s="84" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E132" s="84" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F132" s="84" t="s">
         <v>760</v>
       </c>
       <c r="G132" s="84" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H132" s="84"/>
       <c r="I132" s="84"/>
@@ -10492,13 +10513,13 @@
         <v>217</v>
       </c>
       <c r="E133" s="80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F133" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="G133" s="81" t="s">
         <v>365</v>
-      </c>
-      <c r="G133" s="81" t="s">
-        <v>366</v>
       </c>
       <c r="H133" s="80" t="s">
         <v>228</v>
@@ -10519,16 +10540,16 @@
     <row r="134" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="58"/>
       <c r="D134" s="85" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E134" s="85" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F134" s="85" t="s">
         <v>761</v>
       </c>
       <c r="G134" s="85" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H134" s="85"/>
       <c r="I134" s="85"/>
@@ -12723,27 +12744,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="45" priority="38">
+    <cfRule type="expression" dxfId="45" priority="37">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="37">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="43" priority="36">
+    <cfRule type="expression" dxfId="43" priority="35">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="35">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="41" priority="34">
+    <cfRule type="expression" dxfId="41" priority="33">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="33">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
@@ -12755,27 +12776,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="37" priority="46">
+    <cfRule type="expression" dxfId="37" priority="45">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="45">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="35" priority="30">
+    <cfRule type="expression" dxfId="35" priority="29">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="29">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="33" priority="28">
+    <cfRule type="expression" dxfId="33" priority="27">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="27">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
@@ -12787,19 +12808,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="29" priority="24">
+    <cfRule type="expression" dxfId="29" priority="23">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="23">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="27" priority="22">
+    <cfRule type="expression" dxfId="27" priority="21">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="21">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
@@ -12811,19 +12832,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="23" priority="18">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="17">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="21" priority="16">
+    <cfRule type="expression" dxfId="21" priority="15">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="15">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
@@ -12835,11 +12856,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="17" priority="12">
+    <cfRule type="expression" dxfId="17" priority="11">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="11">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
@@ -12851,11 +12872,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="7">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
@@ -12875,11 +12896,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
@@ -12968,7 +12989,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -12986,7 +13007,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="102" t="s">
+      <c r="I5" s="103" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -13011,7 +13032,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="103"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -13031,7 +13052,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="103"/>
+      <c r="I6" s="104"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -13053,7 +13074,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="103"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -13069,7 +13090,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="103"/>
+      <c r="I7" s="104"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -13091,7 +13112,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="103"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -13107,7 +13128,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="103"/>
+      <c r="I8" s="104"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -13129,7 +13150,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="103"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -13145,7 +13166,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="103"/>
+      <c r="I9" s="104"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -13167,7 +13188,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="104"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -13183,7 +13204,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="104"/>
+      <c r="I10" s="105"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -13206,7 +13227,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="103" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -13224,7 +13245,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="102" t="s">
+      <c r="I11" s="103" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -13248,7 +13269,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="103"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -13268,7 +13289,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="103"/>
+      <c r="I12" s="104"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -13288,7 +13309,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="103"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -13302,7 +13323,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="103"/>
+      <c r="I13" s="104"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -13322,7 +13343,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="103"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -13336,7 +13357,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="103"/>
+      <c r="I14" s="104"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -13356,7 +13377,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="103"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -13370,7 +13391,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="103"/>
+      <c r="I15" s="104"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -13390,7 +13411,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="104"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -13404,7 +13425,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="104"/>
+      <c r="I16" s="105"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>

--- a/output5/【河洛話注音】桃花源記【文讀音】.xlsx
+++ b/output5/【河洛話注音】桃花源記【文讀音】.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7935932A-2DCC-45BE-8350-8238931C9581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{679082E1-F881-4FC8-80FC-1AF497F08CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="794">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1883,14 +1883,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bong7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>loo7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1967,14 +1959,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pian7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㄢ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>it4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2103,14 +2087,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>huat4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2391,22 +2367,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>siong7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kui1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2455,14 +2415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>siok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>than3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2523,14 +2475,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sim7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆬ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zian5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2555,14 +2499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jiok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sip8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2575,22 +2511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ziong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆲ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tai7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2599,22 +2519,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iau3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄠ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kik4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2655,14 +2559,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ha7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄚ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zik4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2695,18 +2591,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄗㄨㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kin7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄣ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>thong1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2743,22 +2627,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tiong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆲ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>piong5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2783,14 +2651,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hiong1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2799,14 +2659,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sian3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄢ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phin1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2823,14 +2675,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hiok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zin2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2871,22 +2715,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆲ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sia3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄚ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>suan5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2895,14 +2723,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ziong7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㆢㄧㆴ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2915,14 +2735,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zai7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄞ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄒㄧㆴ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2999,14 +2811,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sit4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3015,14 +2819,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ju7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆡㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ping2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3031,14 +2827,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zi7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3047,22 +2835,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gak8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄚㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hian7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄢ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>su2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3087,22 +2859,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sut4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zi2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3115,14 +2871,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lut7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄨㆵ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ting5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3131,14 +2879,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tau2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3151,22 +2891,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>siu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄨ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khian3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄧㄢ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>me5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3199,14 +2923,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hio5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zin1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3239,14 +2955,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄢ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zau2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3271,14 +2979,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zut1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3287,38 +2987,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ze3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄧㆴ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zut4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ian7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄢ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ia2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3335,14 +3007,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄚㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iong5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3352,6 +3016,330 @@
   </si>
   <si>
     <t>樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄣˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jia5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄚˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gau7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄠ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kian3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iau1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄠˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄞ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ze1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㆤˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zui3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hio2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄜˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4386,6 +4374,9 @@
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="79" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -4402,9 +4393,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5548,7 +5536,7 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -5564,7 +5552,7 @@
         <v>181</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>641</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -5601,10 +5589,10 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="99" t="s">
-        <v>626</v>
+        <v>600</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>627</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -5625,8 +5613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:AC242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -5683,7 +5671,7 @@
       <c r="Q3" s="83"/>
       <c r="R3" s="83"/>
       <c r="T3" s="92"/>
-      <c r="V3" s="100" t="s">
+      <c r="V3" s="101" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5701,42 +5689,42 @@
         <v>417</v>
       </c>
       <c r="I4" s="84" t="s">
-        <v>644</v>
+        <v>713</v>
       </c>
       <c r="J4" s="84" t="s">
-        <v>763</v>
+        <v>692</v>
       </c>
       <c r="K4" s="84" t="s">
         <v>419</v>
       </c>
       <c r="L4" s="84" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="M4" s="84" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="N4" s="84" t="s">
-        <v>762</v>
+        <v>691</v>
       </c>
       <c r="O4" s="84" t="s">
         <v>421</v>
       </c>
       <c r="P4" s="84" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="Q4" s="84" t="s">
-        <v>766</v>
+        <v>695</v>
       </c>
       <c r="R4" s="84" t="s">
         <v>423</v>
       </c>
       <c r="S4" s="93" t="s">
-        <v>764</v>
+        <v>693</v>
       </c>
       <c r="T4" s="1">
         <v>8</v>
       </c>
-      <c r="V4" s="101"/>
+      <c r="V4" s="102"/>
     </row>
     <row r="5" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
@@ -5788,7 +5776,7 @@
         <v>197</v>
       </c>
       <c r="S5" s="94"/>
-      <c r="V5" s="101"/>
+      <c r="V5" s="102"/>
     </row>
     <row r="6" spans="2:29" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
@@ -5805,33 +5793,33 @@
         <v>418</v>
       </c>
       <c r="I6" s="85" t="s">
-        <v>645</v>
+        <v>714</v>
       </c>
       <c r="J6" s="85"/>
       <c r="K6" s="85" t="s">
         <v>420</v>
       </c>
       <c r="L6" s="85" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="M6" s="85" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="N6" s="85"/>
       <c r="O6" s="85" t="s">
         <v>422</v>
       </c>
       <c r="P6" s="85" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="Q6" s="85" t="s">
-        <v>767</v>
+        <v>696</v>
       </c>
       <c r="R6" s="85" t="s">
         <v>424</v>
       </c>
       <c r="S6" s="95"/>
-      <c r="V6" s="101"/>
+      <c r="V6" s="102"/>
     </row>
     <row r="7" spans="2:29" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
@@ -5840,7 +5828,7 @@
       <c r="E7" s="83"/>
       <c r="F7" s="83"/>
       <c r="G7" s="83" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="H7" s="83"/>
       <c r="I7" s="83"/>
@@ -5854,58 +5842,58 @@
       <c r="Q7" s="83"/>
       <c r="R7" s="83"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="101"/>
+      <c r="V7" s="102"/>
     </row>
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
       <c r="D8" s="84"/>
       <c r="E8" s="84" t="s">
-        <v>768</v>
+        <v>715</v>
       </c>
       <c r="F8" s="84" t="s">
         <v>427</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>646</v>
+        <v>568</v>
       </c>
       <c r="H8" s="84"/>
       <c r="I8" s="84" t="s">
+        <v>718</v>
+      </c>
+      <c r="J8" s="84" t="s">
         <v>429</v>
       </c>
-      <c r="J8" s="84" t="s">
+      <c r="K8" s="84" t="s">
         <v>431</v>
       </c>
-      <c r="K8" s="84" t="s">
+      <c r="L8" s="84" t="s">
+        <v>720</v>
+      </c>
+      <c r="M8" s="84" t="s">
+        <v>722</v>
+      </c>
+      <c r="N8" s="84" t="s">
+        <v>691</v>
+      </c>
+      <c r="O8" s="84" t="s">
         <v>433</v>
       </c>
-      <c r="L8" s="84" t="s">
-        <v>768</v>
-      </c>
-      <c r="M8" s="84" t="s">
-        <v>633</v>
-      </c>
-      <c r="N8" s="84" t="s">
-        <v>762</v>
-      </c>
-      <c r="O8" s="84" t="s">
-        <v>435</v>
-      </c>
       <c r="P8" s="84" t="s">
-        <v>648</v>
+        <v>615</v>
       </c>
       <c r="Q8" s="84" t="s">
-        <v>650</v>
+        <v>617</v>
       </c>
       <c r="R8" s="84" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="S8" s="93" t="s">
-        <v>765</v>
+        <v>694</v>
       </c>
       <c r="T8" s="1">
         <v>1</v>
       </c>
-      <c r="V8" s="101"/>
+      <c r="V8" s="102"/>
     </row>
     <row r="9" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
@@ -5948,7 +5936,7 @@
       <c r="O9" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="P9" s="106" t="s">
+      <c r="P9" s="100" t="s">
         <v>208</v>
       </c>
       <c r="Q9" s="98" t="s">
@@ -5959,51 +5947,51 @@
       </c>
       <c r="S9" s="94"/>
       <c r="T9" s="92"/>
-      <c r="V9" s="101"/>
+      <c r="V9" s="102"/>
     </row>
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
       <c r="D10" s="85"/>
       <c r="E10" s="85" t="s">
-        <v>769</v>
+        <v>716</v>
       </c>
       <c r="F10" s="85" t="s">
         <v>428</v>
       </c>
       <c r="G10" s="85" t="s">
-        <v>647</v>
+        <v>717</v>
       </c>
       <c r="H10" s="85"/>
       <c r="I10" s="85" t="s">
+        <v>719</v>
+      </c>
+      <c r="J10" s="85" t="s">
         <v>430</v>
       </c>
-      <c r="J10" s="85" t="s">
+      <c r="K10" s="85" t="s">
         <v>432</v>
       </c>
-      <c r="K10" s="85" t="s">
-        <v>434</v>
-      </c>
       <c r="L10" s="85" t="s">
-        <v>769</v>
+        <v>721</v>
       </c>
       <c r="M10" s="85" t="s">
-        <v>634</v>
+        <v>723</v>
       </c>
       <c r="N10" s="85"/>
       <c r="O10" s="85" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="P10" s="85" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="Q10" s="85" t="s">
-        <v>651</v>
+        <v>618</v>
       </c>
       <c r="R10" s="85" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="S10" s="96"/>
-      <c r="V10" s="101"/>
+      <c r="V10" s="102"/>
     </row>
     <row r="11" spans="2:29" s="66" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="65"/>
@@ -6023,51 +6011,51 @@
       <c r="P11" s="83"/>
       <c r="Q11" s="83"/>
       <c r="R11" s="83"/>
-      <c r="V11" s="101"/>
+      <c r="V11" s="102"/>
     </row>
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="84" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="E12" s="84"/>
       <c r="F12" s="84" t="s">
-        <v>652</v>
+        <v>619</v>
       </c>
       <c r="G12" s="84" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="I12" s="84" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="J12" s="84" t="s">
         <v>421</v>
       </c>
       <c r="K12" s="84"/>
       <c r="L12" s="84" t="s">
-        <v>644</v>
+        <v>713</v>
       </c>
       <c r="M12" s="84" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="N12" s="84" t="s">
         <v>371</v>
       </c>
       <c r="O12" s="84" t="s">
-        <v>558</v>
+        <v>667</v>
       </c>
       <c r="P12" s="84"/>
       <c r="Q12" s="84" t="s">
-        <v>656</v>
+        <v>621</v>
       </c>
       <c r="R12" s="84" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
       <c r="S12" s="93"/>
-      <c r="V12" s="101"/>
+      <c r="V12" s="102"/>
     </row>
     <row r="13" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
@@ -6120,51 +6108,51 @@
         <v>221</v>
       </c>
       <c r="S13" s="94"/>
-      <c r="V13" s="101"/>
+      <c r="V13" s="102"/>
     </row>
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="85" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="E14" s="85"/>
       <c r="F14" s="85" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="G14" s="85" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="H14" s="85" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="I14" s="85" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="J14" s="85" t="s">
         <v>422</v>
       </c>
       <c r="K14" s="85"/>
       <c r="L14" s="85" t="s">
-        <v>645</v>
+        <v>714</v>
       </c>
       <c r="M14" s="85" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N14" s="85" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="O14" s="85" t="s">
-        <v>559</v>
+        <v>668</v>
       </c>
       <c r="P14" s="85"/>
       <c r="Q14" s="85" t="s">
-        <v>657</v>
+        <v>622</v>
       </c>
       <c r="R14" s="85" t="s">
-        <v>630</v>
+        <v>604</v>
       </c>
       <c r="S14" s="96"/>
-      <c r="V14" s="101"/>
+      <c r="V14" s="102"/>
     </row>
     <row r="15" spans="2:29" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
@@ -6184,7 +6172,7 @@
       <c r="P15" s="83"/>
       <c r="Q15" s="83"/>
       <c r="R15" s="83"/>
-      <c r="V15" s="101"/>
+      <c r="V15" s="102"/>
       <c r="AC15" s="67" t="s">
         <v>184</v>
       </c>
@@ -6192,46 +6180,46 @@
     <row r="16" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="84" t="s">
-        <v>658</v>
+        <v>724</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F16" s="84"/>
       <c r="G16" s="84" t="s">
         <v>386</v>
       </c>
       <c r="H16" s="84" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I16" s="84" t="s">
-        <v>660</v>
+        <v>623</v>
       </c>
       <c r="J16" s="84" t="s">
-        <v>662</v>
+        <v>625</v>
       </c>
       <c r="K16" s="84"/>
       <c r="L16" s="84" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="M16" s="84" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="N16" s="84" t="s">
-        <v>589</v>
+        <v>726</v>
       </c>
       <c r="O16" s="84" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="P16" s="84" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Q16" s="84"/>
       <c r="R16" s="84" t="s">
-        <v>664</v>
+        <v>728</v>
       </c>
       <c r="S16" s="93"/>
-      <c r="V16" s="101"/>
+      <c r="V16" s="102"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
@@ -6253,7 +6241,7 @@
       <c r="H17" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="I17" s="106" t="s">
+      <c r="I17" s="100" t="s">
         <v>224</v>
       </c>
       <c r="J17" s="98" t="s">
@@ -6284,51 +6272,51 @@
         <v>229</v>
       </c>
       <c r="S17" s="94"/>
-      <c r="V17" s="101"/>
+      <c r="V17" s="102"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="85" t="s">
-        <v>659</v>
+        <v>725</v>
       </c>
       <c r="E18" s="85" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F18" s="85"/>
       <c r="G18" s="85" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H18" s="85" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I18" s="85" t="s">
-        <v>661</v>
+        <v>624</v>
       </c>
       <c r="J18" s="85" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="K18" s="85"/>
       <c r="L18" s="85" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="M18" s="85" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="N18" s="85" t="s">
-        <v>590</v>
+        <v>727</v>
       </c>
       <c r="O18" s="85" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P18" s="85" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Q18" s="85"/>
       <c r="R18" s="85" t="s">
-        <v>665</v>
+        <v>729</v>
       </c>
       <c r="S18" s="96"/>
-      <c r="V18" s="101"/>
+      <c r="V18" s="102"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -6348,28 +6336,28 @@
       <c r="P19" s="83"/>
       <c r="Q19" s="83"/>
       <c r="R19" s="83"/>
-      <c r="V19" s="101"/>
+      <c r="V19" s="102"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="84" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="E20" s="84" t="s">
-        <v>646</v>
+        <v>435</v>
       </c>
       <c r="F20" s="84"/>
       <c r="G20" s="84" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="H20" s="84" t="s">
+        <v>444</v>
+      </c>
+      <c r="I20" s="84" t="s">
         <v>446</v>
       </c>
-      <c r="I20" s="84" t="s">
-        <v>448</v>
-      </c>
       <c r="J20" s="84" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="K20" s="84"/>
       <c r="L20" s="84"/>
@@ -6380,7 +6368,7 @@
       <c r="Q20" s="84"/>
       <c r="R20" s="84"/>
       <c r="S20" s="93"/>
-      <c r="V20" s="101"/>
+      <c r="V20" s="102"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
@@ -6419,28 +6407,28 @@
       <c r="Q21" s="80"/>
       <c r="R21" s="80"/>
       <c r="S21" s="94"/>
-      <c r="V21" s="101"/>
+      <c r="V21" s="102"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="85" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="E22" s="85" t="s">
-        <v>647</v>
+        <v>436</v>
       </c>
       <c r="F22" s="85"/>
       <c r="G22" s="85" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="H22" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="I22" s="85" t="s">
         <v>447</v>
       </c>
-      <c r="I22" s="85" t="s">
-        <v>449</v>
-      </c>
       <c r="J22" s="85" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="K22" s="85"/>
       <c r="L22" s="85"/>
@@ -6451,7 +6439,7 @@
       <c r="Q22" s="85"/>
       <c r="R22" s="85"/>
       <c r="S22" s="96"/>
-      <c r="V22" s="102"/>
+      <c r="V22" s="103"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -6569,39 +6557,39 @@
       <c r="D28" s="84"/>
       <c r="E28" s="84"/>
       <c r="F28" s="84" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="G28" s="84" t="s">
-        <v>666</v>
+        <v>627</v>
       </c>
       <c r="H28" s="84" t="s">
-        <v>668</v>
+        <v>629</v>
       </c>
       <c r="I28" s="84" t="s">
         <v>417</v>
       </c>
       <c r="J28" s="84"/>
       <c r="K28" s="84" t="s">
+        <v>647</v>
+      </c>
+      <c r="L28" s="84" t="s">
+        <v>613</v>
+      </c>
+      <c r="M28" s="84" t="s">
+        <v>448</v>
+      </c>
+      <c r="N28" s="84" t="s">
         <v>450</v>
-      </c>
-      <c r="L28" s="84" t="s">
-        <v>642</v>
-      </c>
-      <c r="M28" s="84" t="s">
-        <v>452</v>
-      </c>
-      <c r="N28" s="84" t="s">
-        <v>454</v>
       </c>
       <c r="O28" s="84"/>
       <c r="P28" s="84" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="Q28" s="84" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="R28" s="84" t="s">
-        <v>670</v>
+        <v>631</v>
       </c>
       <c r="S28" s="93"/>
       <c r="U28" s="67" t="str">
@@ -6672,39 +6660,39 @@
       <c r="D30" s="85"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="G30" s="85" t="s">
-        <v>667</v>
+        <v>628</v>
       </c>
       <c r="H30" s="85" t="s">
-        <v>669</v>
+        <v>630</v>
       </c>
       <c r="I30" s="85" t="s">
         <v>418</v>
       </c>
       <c r="J30" s="85"/>
       <c r="K30" s="85" t="s">
+        <v>648</v>
+      </c>
+      <c r="L30" s="85" t="s">
+        <v>614</v>
+      </c>
+      <c r="M30" s="85" t="s">
+        <v>449</v>
+      </c>
+      <c r="N30" s="85" t="s">
         <v>451</v>
-      </c>
-      <c r="L30" s="85" t="s">
-        <v>643</v>
-      </c>
-      <c r="M30" s="85" t="s">
-        <v>453</v>
-      </c>
-      <c r="N30" s="85" t="s">
-        <v>455</v>
       </c>
       <c r="O30" s="85"/>
       <c r="P30" s="85" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="Q30" s="85" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="R30" s="85" t="s">
-        <v>671</v>
+        <v>632</v>
       </c>
       <c r="S30" s="96"/>
       <c r="U30" s="67" t="str">
@@ -6740,43 +6728,43 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="84" t="s">
-        <v>672</v>
+        <v>633</v>
       </c>
       <c r="E32" s="84"/>
       <c r="F32" s="84" t="s">
-        <v>674</v>
+        <v>635</v>
       </c>
       <c r="G32" s="84" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H32" s="84" t="s">
-        <v>597</v>
+        <v>730</v>
       </c>
       <c r="I32" s="84" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="J32" s="84" t="s">
-        <v>676</v>
+        <v>732</v>
       </c>
       <c r="K32" s="84"/>
       <c r="L32" s="84" t="s">
-        <v>450</v>
+        <v>647</v>
       </c>
       <c r="M32" s="84" t="s">
-        <v>678</v>
+        <v>734</v>
       </c>
       <c r="N32" s="84" t="s">
-        <v>680</v>
+        <v>637</v>
       </c>
       <c r="O32" s="84"/>
       <c r="P32" s="84" t="s">
-        <v>682</v>
+        <v>736</v>
       </c>
       <c r="Q32" s="84" t="s">
-        <v>672</v>
+        <v>633</v>
       </c>
       <c r="R32" s="84" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="S32" s="93"/>
       <c r="U32" s="67" t="str">
@@ -6820,7 +6808,7 @@
       <c r="M33" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="N33" s="106" t="s">
+      <c r="N33" s="100" t="s">
         <v>247</v>
       </c>
       <c r="O33" s="80" t="s">
@@ -6841,43 +6829,43 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="85" t="s">
-        <v>673</v>
+        <v>634</v>
       </c>
       <c r="E34" s="85"/>
       <c r="F34" s="85" t="s">
-        <v>675</v>
+        <v>636</v>
       </c>
       <c r="G34" s="85" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H34" s="85" t="s">
-        <v>598</v>
+        <v>731</v>
       </c>
       <c r="I34" s="85" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="J34" s="85" t="s">
-        <v>677</v>
+        <v>733</v>
       </c>
       <c r="K34" s="85"/>
       <c r="L34" s="85" t="s">
-        <v>451</v>
+        <v>648</v>
       </c>
       <c r="M34" s="85" t="s">
-        <v>679</v>
+        <v>735</v>
       </c>
       <c r="N34" s="85" t="s">
-        <v>681</v>
+        <v>638</v>
       </c>
       <c r="O34" s="85"/>
       <c r="P34" s="85" t="s">
-        <v>683</v>
+        <v>737</v>
       </c>
       <c r="Q34" s="85" t="s">
-        <v>673</v>
+        <v>634</v>
       </c>
       <c r="R34" s="85" t="s">
-        <v>684</v>
+        <v>639</v>
       </c>
       <c r="S34" s="96"/>
       <c r="V34" s="60"/>
@@ -6906,36 +6894,36 @@
       <c r="B36" s="56"/>
       <c r="D36" s="84"/>
       <c r="E36" s="84" t="s">
-        <v>771</v>
+        <v>698</v>
       </c>
       <c r="F36" s="84" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G36" s="84" t="s">
-        <v>685</v>
+        <v>640</v>
       </c>
       <c r="H36" s="84"/>
       <c r="I36" s="84" t="s">
-        <v>687</v>
+        <v>738</v>
       </c>
       <c r="J36" s="84" t="s">
-        <v>635</v>
+        <v>606</v>
       </c>
       <c r="K36" s="84" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="L36" s="84"/>
       <c r="M36" s="84" t="s">
-        <v>664</v>
+        <v>728</v>
       </c>
       <c r="N36" s="84" t="s">
-        <v>646</v>
+        <v>435</v>
       </c>
       <c r="O36" s="84" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="P36" s="84" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="Q36" s="84" t="s">
         <v>421</v>
@@ -7001,36 +6989,36 @@
       <c r="B38" s="58"/>
       <c r="D38" s="85"/>
       <c r="E38" s="85" t="s">
-        <v>772</v>
+        <v>699</v>
       </c>
       <c r="F38" s="85" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G38" s="85" t="s">
-        <v>686</v>
+        <v>641</v>
       </c>
       <c r="H38" s="85"/>
       <c r="I38" s="85" t="s">
-        <v>688</v>
+        <v>739</v>
       </c>
       <c r="J38" s="85" t="s">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="K38" s="85" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="L38" s="85"/>
       <c r="M38" s="85" t="s">
-        <v>665</v>
+        <v>729</v>
       </c>
       <c r="N38" s="85" t="s">
-        <v>647</v>
+        <v>436</v>
       </c>
       <c r="O38" s="85" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="P38" s="85" t="s">
-        <v>689</v>
+        <v>642</v>
       </c>
       <c r="Q38" s="85" t="s">
         <v>422</v>
@@ -7062,42 +7050,42 @@
     <row r="40" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="56"/>
       <c r="D40" s="84" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E40" s="84" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F40" s="84" t="s">
-        <v>690</v>
+        <v>643</v>
       </c>
       <c r="G40" s="84" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H40" s="84"/>
       <c r="I40" s="84" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="J40" s="84" t="s">
-        <v>692</v>
+        <v>645</v>
       </c>
       <c r="K40" s="84" t="s">
-        <v>694</v>
+        <v>647</v>
       </c>
       <c r="L40" s="84" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M40" s="84"/>
       <c r="N40" s="84" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="O40" s="84" t="s">
-        <v>678</v>
+        <v>734</v>
       </c>
       <c r="P40" s="84" t="s">
-        <v>696</v>
+        <v>649</v>
       </c>
       <c r="Q40" s="84" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="R40" s="84"/>
       <c r="S40" s="93"/>
@@ -7129,7 +7117,7 @@
       <c r="J41" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="K41" s="106" t="s">
+      <c r="K41" s="100" t="s">
         <v>261</v>
       </c>
       <c r="L41" s="80" t="s">
@@ -7144,7 +7132,7 @@
       <c r="O41" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="P41" s="106" t="s">
+      <c r="P41" s="100" t="s">
         <v>264</v>
       </c>
       <c r="Q41" s="80" t="s">
@@ -7159,42 +7147,42 @@
     <row r="42" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="58"/>
       <c r="D42" s="85" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F42" s="85" t="s">
-        <v>691</v>
+        <v>644</v>
       </c>
       <c r="G42" s="85" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H42" s="85"/>
       <c r="I42" s="85" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J42" s="85" t="s">
-        <v>693</v>
+        <v>646</v>
       </c>
       <c r="K42" s="85" t="s">
-        <v>695</v>
+        <v>648</v>
       </c>
       <c r="L42" s="85" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M42" s="85"/>
       <c r="N42" s="85" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="O42" s="85" t="s">
-        <v>679</v>
+        <v>735</v>
       </c>
       <c r="P42" s="85" t="s">
-        <v>697</v>
+        <v>650</v>
       </c>
       <c r="Q42" s="85" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="R42" s="85"/>
       <c r="S42" s="96"/>
@@ -7223,41 +7211,41 @@
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
       <c r="D44" s="84" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="E44" s="84" t="s">
-        <v>698</v>
+        <v>651</v>
       </c>
       <c r="F44" s="84" t="s">
-        <v>700</v>
+        <v>653</v>
       </c>
       <c r="G44" s="84"/>
       <c r="H44" s="84" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="I44" s="84" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J44" s="84"/>
       <c r="K44" s="84" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="L44" s="84"/>
       <c r="M44" s="84" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="N44" s="84" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O44" s="84" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="P44" s="84"/>
       <c r="Q44" s="84" t="s">
-        <v>773</v>
+        <v>700</v>
       </c>
       <c r="R44" s="84" t="s">
-        <v>702</v>
+        <v>655</v>
       </c>
       <c r="S44" s="93"/>
       <c r="V44" s="60"/>
@@ -7318,41 +7306,41 @@
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
       <c r="D46" s="85" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>699</v>
+        <v>652</v>
       </c>
       <c r="F46" s="85" t="s">
-        <v>701</v>
+        <v>654</v>
       </c>
       <c r="G46" s="85"/>
       <c r="H46" s="85" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I46" s="85" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="J46" s="85"/>
       <c r="K46" s="85" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="L46" s="85"/>
       <c r="M46" s="85" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N46" s="85" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="O46" s="85" t="s">
-        <v>573</v>
+        <v>540</v>
       </c>
       <c r="P46" s="85"/>
       <c r="Q46" s="85" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
       <c r="R46" s="85" t="s">
-        <v>703</v>
+        <v>656</v>
       </c>
       <c r="S46" s="96"/>
       <c r="V46" s="60"/>
@@ -7380,42 +7368,42 @@
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
       <c r="D48" s="84" t="s">
-        <v>704</v>
+        <v>657</v>
       </c>
       <c r="E48" s="84" t="s">
-        <v>635</v>
+        <v>606</v>
       </c>
       <c r="F48" s="84"/>
       <c r="G48" s="84" t="s">
         <v>394</v>
       </c>
       <c r="H48" s="84" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="I48" s="84" t="s">
-        <v>480</v>
+        <v>740</v>
       </c>
       <c r="J48" s="84" t="s">
-        <v>568</v>
+        <v>742</v>
       </c>
       <c r="K48" s="84"/>
       <c r="L48" s="84" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M48" s="84" t="s">
-        <v>644</v>
+        <v>713</v>
       </c>
       <c r="N48" s="84" t="s">
-        <v>774</v>
+        <v>701</v>
       </c>
       <c r="O48" s="84" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="P48" s="84" t="s">
-        <v>602</v>
+        <v>744</v>
       </c>
       <c r="Q48" s="84" t="s">
-        <v>484</v>
+        <v>746</v>
       </c>
       <c r="R48" s="84"/>
       <c r="S48" s="93"/>
@@ -7456,7 +7444,7 @@
       <c r="M49" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="N49" s="106" t="s">
+      <c r="N49" s="100" t="s">
         <v>274</v>
       </c>
       <c r="O49" s="80" t="s">
@@ -7477,42 +7465,42 @@
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
       <c r="D50" s="85" t="s">
-        <v>705</v>
+        <v>658</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="F50" s="85"/>
       <c r="G50" s="85" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H50" s="85" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="I50" s="85" t="s">
-        <v>481</v>
+        <v>741</v>
       </c>
       <c r="J50" s="85" t="s">
-        <v>569</v>
+        <v>743</v>
       </c>
       <c r="K50" s="85"/>
       <c r="L50" s="85" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M50" s="85" t="s">
-        <v>645</v>
+        <v>714</v>
       </c>
       <c r="N50" s="85" t="s">
-        <v>775</v>
+        <v>702</v>
       </c>
       <c r="O50" s="85" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P50" s="85" t="s">
-        <v>603</v>
+        <v>745</v>
       </c>
       <c r="Q50" s="85" t="s">
-        <v>485</v>
+        <v>747</v>
       </c>
       <c r="R50" s="85"/>
       <c r="S50" s="96"/>
@@ -7541,42 +7529,42 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="84" t="s">
-        <v>706</v>
+        <v>659</v>
       </c>
       <c r="E52" s="84" t="s">
-        <v>708</v>
+        <v>748</v>
       </c>
       <c r="F52" s="84" t="s">
-        <v>776</v>
+        <v>750</v>
       </c>
       <c r="G52" s="84" t="s">
-        <v>604</v>
+        <v>752</v>
       </c>
       <c r="H52" s="84"/>
       <c r="I52" s="84" t="s">
-        <v>710</v>
+        <v>661</v>
       </c>
       <c r="J52" s="84" t="s">
-        <v>712</v>
+        <v>754</v>
       </c>
       <c r="K52" s="84" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="L52" s="84" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="M52" s="84"/>
       <c r="N52" s="84" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O52" s="84" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="P52" s="84" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="Q52" s="84" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="R52" s="84"/>
       <c r="S52" s="93"/>
@@ -7638,42 +7626,42 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="85" t="s">
-        <v>707</v>
+        <v>660</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>709</v>
+        <v>749</v>
       </c>
       <c r="F54" s="85" t="s">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="G54" s="85" t="s">
-        <v>605</v>
+        <v>753</v>
       </c>
       <c r="H54" s="85"/>
       <c r="I54" s="85" t="s">
-        <v>711</v>
+        <v>662</v>
       </c>
       <c r="J54" s="85" t="s">
-        <v>713</v>
+        <v>755</v>
       </c>
       <c r="K54" s="85" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="L54" s="85" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="M54" s="85"/>
       <c r="N54" s="85" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="O54" s="85" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="P54" s="85" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="Q54" s="85" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="R54" s="85"/>
       <c r="S54" s="96"/>
@@ -7702,43 +7690,43 @@
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="56"/>
       <c r="D56" s="84" t="s">
-        <v>714</v>
+        <v>663</v>
       </c>
       <c r="E56" s="84" t="s">
-        <v>716</v>
+        <v>756</v>
       </c>
       <c r="F56" s="84" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G56" s="84" t="s">
-        <v>718</v>
+        <v>665</v>
       </c>
       <c r="H56" s="84" t="s">
-        <v>720</v>
+        <v>758</v>
       </c>
       <c r="I56" s="84"/>
       <c r="J56" s="84" t="s">
-        <v>722</v>
+        <v>760</v>
       </c>
       <c r="K56" s="84" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="L56" s="84" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="M56" s="84"/>
       <c r="N56" s="84" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="O56" s="84" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="P56" s="84" t="s">
-        <v>637</v>
+        <v>608</v>
       </c>
       <c r="Q56" s="84"/>
       <c r="R56" s="84" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="S56" s="93"/>
       <c r="V56" s="60"/>
@@ -7751,7 +7739,7 @@
       <c r="D57" s="80" t="s">
         <v>383</v>
       </c>
-      <c r="E57" s="106" t="s">
+      <c r="E57" s="100" t="s">
         <v>384</v>
       </c>
       <c r="F57" s="80" t="s">
@@ -7761,7 +7749,7 @@
         <v>385</v>
       </c>
       <c r="H57" s="81" t="s">
-        <v>796</v>
+        <v>712</v>
       </c>
       <c r="I57" s="80" t="s">
         <v>228</v>
@@ -7799,43 +7787,43 @@
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="58"/>
       <c r="D58" s="85" t="s">
-        <v>715</v>
+        <v>664</v>
       </c>
       <c r="E58" s="85" t="s">
-        <v>717</v>
+        <v>757</v>
       </c>
       <c r="F58" s="85" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G58" s="85" t="s">
-        <v>719</v>
+        <v>666</v>
       </c>
       <c r="H58" s="85" t="s">
-        <v>721</v>
+        <v>759</v>
       </c>
       <c r="I58" s="85"/>
       <c r="J58" s="85" t="s">
-        <v>723</v>
+        <v>761</v>
       </c>
       <c r="K58" s="85" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="L58" s="85" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="M58" s="85"/>
       <c r="N58" s="85" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="O58" s="85" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="P58" s="85" t="s">
-        <v>638</v>
+        <v>609</v>
       </c>
       <c r="Q58" s="85"/>
       <c r="R58" s="85" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="S58" s="96"/>
       <c r="V58" s="60"/>
@@ -7863,43 +7851,43 @@
     <row r="60" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="56"/>
       <c r="D60" s="84" t="s">
-        <v>724</v>
+        <v>667</v>
       </c>
       <c r="E60" s="84" t="s">
-        <v>682</v>
+        <v>736</v>
       </c>
       <c r="F60" s="84" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G60" s="84"/>
       <c r="H60" s="84" t="s">
-        <v>726</v>
+        <v>669</v>
       </c>
       <c r="I60" s="84" t="s">
-        <v>728</v>
+        <v>671</v>
       </c>
       <c r="J60" s="84" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K60" s="84"/>
       <c r="L60" s="84" t="s">
-        <v>450</v>
+        <v>647</v>
       </c>
       <c r="M60" s="84" t="s">
-        <v>608</v>
+        <v>762</v>
       </c>
       <c r="N60" s="84" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="O60" s="84" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P60" s="84"/>
       <c r="Q60" s="84" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="R60" s="84" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="S60" s="93"/>
       <c r="V60" s="60"/>
@@ -7909,7 +7897,7 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="106" t="s">
+      <c r="D61" s="100" t="s">
         <v>289</v>
       </c>
       <c r="E61" s="80" t="s">
@@ -7960,43 +7948,43 @@
     <row r="62" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="58"/>
       <c r="D62" s="85" t="s">
-        <v>725</v>
+        <v>668</v>
       </c>
       <c r="E62" s="85" t="s">
-        <v>683</v>
+        <v>737</v>
       </c>
       <c r="F62" s="85" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G62" s="85"/>
       <c r="H62" s="85" t="s">
-        <v>727</v>
+        <v>670</v>
       </c>
       <c r="I62" s="85" t="s">
-        <v>729</v>
+        <v>672</v>
       </c>
       <c r="J62" s="85" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K62" s="85"/>
       <c r="L62" s="85" t="s">
-        <v>451</v>
+        <v>648</v>
       </c>
       <c r="M62" s="85" t="s">
-        <v>609</v>
+        <v>763</v>
       </c>
       <c r="N62" s="85" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="O62" s="85" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="P62" s="85"/>
       <c r="Q62" s="85" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="R62" s="85" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="S62" s="96"/>
       <c r="V62" s="60"/>
@@ -8025,40 +8013,40 @@
       <c r="B64" s="56"/>
       <c r="D64" s="84"/>
       <c r="E64" s="84" t="s">
-        <v>610</v>
+        <v>764</v>
       </c>
       <c r="F64" s="84" t="s">
         <v>394</v>
       </c>
       <c r="G64" s="84"/>
       <c r="H64" s="84" t="s">
-        <v>484</v>
+        <v>746</v>
       </c>
       <c r="I64" s="84" t="s">
-        <v>730</v>
+        <v>442</v>
       </c>
       <c r="J64" s="84"/>
       <c r="K64" s="84" t="s">
-        <v>778</v>
+        <v>703</v>
       </c>
       <c r="L64" s="84" t="s">
-        <v>644</v>
+        <v>713</v>
       </c>
       <c r="M64" s="84" t="s">
-        <v>568</v>
+        <v>742</v>
       </c>
       <c r="N64" s="84" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="O64" s="84" t="s">
-        <v>734</v>
+        <v>673</v>
       </c>
       <c r="P64" s="84" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="Q64" s="84"/>
       <c r="R64" s="84" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="S64" s="93"/>
       <c r="V64" s="60"/>
@@ -8120,40 +8108,40 @@
       <c r="B66" s="58"/>
       <c r="D66" s="85"/>
       <c r="E66" s="85" t="s">
-        <v>611</v>
+        <v>765</v>
       </c>
       <c r="F66" s="85" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G66" s="85"/>
       <c r="H66" s="85" t="s">
-        <v>485</v>
+        <v>747</v>
       </c>
       <c r="I66" s="85" t="s">
-        <v>731</v>
+        <v>443</v>
       </c>
       <c r="J66" s="85"/>
       <c r="K66" s="85" t="s">
-        <v>779</v>
+        <v>704</v>
       </c>
       <c r="L66" s="85" t="s">
-        <v>645</v>
+        <v>714</v>
       </c>
       <c r="M66" s="85" t="s">
-        <v>569</v>
+        <v>743</v>
       </c>
       <c r="N66" s="85" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="O66" s="85" t="s">
-        <v>735</v>
+        <v>674</v>
       </c>
       <c r="P66" s="85" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="Q66" s="85"/>
       <c r="R66" s="85" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="S66" s="96"/>
       <c r="V66" s="60"/>
@@ -8181,40 +8169,40 @@
     <row r="68" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="56"/>
       <c r="D68" s="84" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E68" s="84" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="F68" s="84" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G68" s="84"/>
       <c r="H68" s="84" t="s">
-        <v>718</v>
+        <v>665</v>
       </c>
       <c r="I68" s="84" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="J68" s="84"/>
       <c r="K68" s="84"/>
       <c r="L68" s="84" t="s">
-        <v>658</v>
+        <v>724</v>
       </c>
       <c r="M68" s="84" t="s">
+        <v>499</v>
+      </c>
+      <c r="N68" s="84" t="s">
+        <v>501</v>
+      </c>
+      <c r="O68" s="84" t="s">
+        <v>503</v>
+      </c>
+      <c r="P68" s="84" t="s">
         <v>505</v>
       </c>
-      <c r="N68" s="84" t="s">
+      <c r="Q68" s="84" t="s">
         <v>507</v>
-      </c>
-      <c r="O68" s="84" t="s">
-        <v>509</v>
-      </c>
-      <c r="P68" s="84" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q68" s="84" t="s">
-        <v>513</v>
       </c>
       <c r="R68" s="84"/>
       <c r="S68" s="93"/>
@@ -8276,40 +8264,40 @@
     <row r="70" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="58"/>
       <c r="D70" s="85" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E70" s="85" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="F70" s="85" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G70" s="85"/>
       <c r="H70" s="85" t="s">
-        <v>719</v>
+        <v>666</v>
       </c>
       <c r="I70" s="85" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="J70" s="85"/>
       <c r="K70" s="85"/>
       <c r="L70" s="85" t="s">
-        <v>659</v>
+        <v>725</v>
       </c>
       <c r="M70" s="85" t="s">
+        <v>500</v>
+      </c>
+      <c r="N70" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="O70" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="P70" s="85" t="s">
         <v>506</v>
       </c>
-      <c r="N70" s="85" t="s">
+      <c r="Q70" s="85" t="s">
         <v>508</v>
-      </c>
-      <c r="O70" s="85" t="s">
-        <v>510</v>
-      </c>
-      <c r="P70" s="85" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q70" s="85" t="s">
-        <v>514</v>
       </c>
       <c r="R70" s="85"/>
       <c r="S70" s="96"/>
@@ -8338,44 +8326,44 @@
     <row r="72" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="56"/>
       <c r="D72" s="84" t="s">
-        <v>732</v>
+        <v>766</v>
       </c>
       <c r="E72" s="84" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="F72" s="84" t="s">
-        <v>734</v>
+        <v>673</v>
       </c>
       <c r="G72" s="84" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H72" s="84" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="I72" s="84" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J72" s="84" t="s">
-        <v>734</v>
+        <v>673</v>
       </c>
       <c r="K72" s="84" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="L72" s="84" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="M72" s="84"/>
       <c r="N72" s="84" t="s">
-        <v>435</v>
+        <v>770</v>
       </c>
       <c r="O72" s="84" t="s">
-        <v>664</v>
+        <v>728</v>
       </c>
       <c r="P72" s="84" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="Q72" s="84" t="s">
-        <v>425</v>
+        <v>774</v>
       </c>
       <c r="R72" s="84"/>
       <c r="S72" s="93"/>
@@ -8395,7 +8383,7 @@
       <c r="F73" s="80" t="s">
         <v>308</v>
       </c>
-      <c r="G73" s="81" t="s">
+      <c r="G73" s="80" t="s">
         <v>309</v>
       </c>
       <c r="H73" s="80" t="s">
@@ -8416,7 +8404,7 @@
       <c r="M73" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="N73" s="106" t="s">
+      <c r="N73" s="100" t="s">
         <v>312</v>
       </c>
       <c r="O73" s="80" t="s">
@@ -8437,44 +8425,44 @@
     <row r="74" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="58"/>
       <c r="D74" s="85" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="E74" s="85" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="F74" s="85" t="s">
-        <v>735</v>
+        <v>674</v>
       </c>
       <c r="G74" s="85" t="s">
-        <v>782</v>
+        <v>705</v>
       </c>
       <c r="H74" s="85" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="I74" s="85" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J74" s="85" t="s">
-        <v>735</v>
+        <v>674</v>
       </c>
       <c r="K74" s="85" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="L74" s="85" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M74" s="85"/>
       <c r="N74" s="85" t="s">
-        <v>436</v>
+        <v>771</v>
       </c>
       <c r="O74" s="85" t="s">
-        <v>665</v>
+        <v>729</v>
       </c>
       <c r="P74" s="85" t="s">
-        <v>632</v>
+        <v>773</v>
       </c>
       <c r="Q74" s="85" t="s">
-        <v>426</v>
+        <v>775</v>
       </c>
       <c r="R74" s="85"/>
       <c r="S74" s="96"/>
@@ -8503,40 +8491,40 @@
     <row r="76" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="56"/>
       <c r="D76" s="84" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E76" s="84" t="s">
-        <v>784</v>
+        <v>533</v>
       </c>
       <c r="F76" s="84" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G76" s="84" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="H76" s="84" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="I76" s="84" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="J76" s="84"/>
       <c r="K76" s="84"/>
       <c r="L76" s="84" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="M76" s="84"/>
       <c r="N76" s="84" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="O76" s="84" t="s">
-        <v>736</v>
+        <v>675</v>
       </c>
       <c r="P76" s="84" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="Q76" s="84" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="R76" s="84"/>
       <c r="S76" s="93"/>
@@ -8598,40 +8586,40 @@
     <row r="78" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="58"/>
       <c r="D78" s="85" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="E78" s="85" t="s">
-        <v>785</v>
+        <v>534</v>
       </c>
       <c r="F78" s="85" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G78" s="85" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="H78" s="85" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="I78" s="85" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="J78" s="85"/>
       <c r="K78" s="85"/>
       <c r="L78" s="85" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="M78" s="85"/>
       <c r="N78" s="85" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="O78" s="85" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="P78" s="85" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="Q78" s="85" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="R78" s="85"/>
       <c r="S78" s="96"/>
@@ -8661,29 +8649,29 @@
       <c r="B80" s="56"/>
       <c r="D80" s="84"/>
       <c r="E80" s="84" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F80" s="84" t="s">
-        <v>435</v>
+        <v>770</v>
       </c>
       <c r="G80" s="84" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="H80" s="84" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="I80" s="84" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="J80" s="84"/>
       <c r="K80" s="84" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="L80" s="84" t="s">
-        <v>737</v>
+        <v>776</v>
       </c>
       <c r="M80" s="84" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="N80" s="84"/>
       <c r="O80" s="84" t="s">
@@ -8691,10 +8679,10 @@
       </c>
       <c r="P80" s="84"/>
       <c r="Q80" s="84" t="s">
-        <v>734</v>
+        <v>673</v>
       </c>
       <c r="R80" s="84" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="S80" s="93"/>
       <c r="V80" s="60"/>
@@ -8756,29 +8744,29 @@
       <c r="B82" s="58"/>
       <c r="D82" s="85"/>
       <c r="E82" s="85" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F82" s="85" t="s">
-        <v>436</v>
+        <v>771</v>
       </c>
       <c r="G82" s="85" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="H82" s="85" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="I82" s="85" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="J82" s="85"/>
       <c r="K82" s="85" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="L82" s="85" t="s">
-        <v>738</v>
+        <v>777</v>
       </c>
       <c r="M82" s="85" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="N82" s="85"/>
       <c r="O82" s="85" t="s">
@@ -8786,10 +8774,10 @@
       </c>
       <c r="P82" s="85"/>
       <c r="Q82" s="85" t="s">
-        <v>735</v>
+        <v>674</v>
       </c>
       <c r="R82" s="85" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="S82" s="96"/>
       <c r="V82" s="60"/>
@@ -8817,45 +8805,45 @@
     <row r="84" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="56"/>
       <c r="D84" s="84" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E84" s="84" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F84" s="84" t="s">
-        <v>766</v>
+        <v>695</v>
       </c>
       <c r="G84" s="84" t="s">
-        <v>726</v>
+        <v>669</v>
       </c>
       <c r="H84" s="84" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="I84" s="84" t="s">
-        <v>724</v>
+        <v>667</v>
       </c>
       <c r="J84" s="84" t="s">
-        <v>568</v>
+        <v>742</v>
       </c>
       <c r="K84" s="84"/>
       <c r="L84" s="84" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M84" s="84" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="N84" s="84" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="O84" s="84"/>
       <c r="P84" s="84" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="Q84" s="84" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="R84" s="84" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="S84" s="93"/>
       <c r="V84" s="60"/>
@@ -8916,45 +8904,45 @@
     <row r="86" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="58"/>
       <c r="D86" s="85" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E86" s="85" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F86" s="85" t="s">
-        <v>767</v>
+        <v>696</v>
       </c>
       <c r="G86" s="85" t="s">
-        <v>727</v>
+        <v>670</v>
       </c>
       <c r="H86" s="85" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="I86" s="85" t="s">
-        <v>725</v>
+        <v>668</v>
       </c>
       <c r="J86" s="85" t="s">
-        <v>569</v>
+        <v>743</v>
       </c>
       <c r="K86" s="85"/>
       <c r="L86" s="85" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="M86" s="85" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="N86" s="85" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="O86" s="85"/>
       <c r="P86" s="85" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="Q86" s="85" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="R86" s="85" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="S86" s="96"/>
       <c r="V86" s="60"/>
@@ -8982,42 +8970,42 @@
     <row r="88" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="56"/>
       <c r="D88" s="84" t="s">
-        <v>664</v>
+        <v>728</v>
       </c>
       <c r="E88" s="84" t="s">
-        <v>786</v>
+        <v>425</v>
       </c>
       <c r="F88" s="84" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="G88" s="84" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H88" s="84" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="I88" s="84"/>
       <c r="J88" s="84" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="K88" s="84" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="L88" s="84" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="M88" s="84" t="s">
-        <v>730</v>
+        <v>442</v>
       </c>
       <c r="N88" s="84"/>
       <c r="O88" s="84" t="s">
-        <v>739</v>
+        <v>676</v>
       </c>
       <c r="P88" s="84" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="Q88" s="84" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="R88" s="84"/>
       <c r="S88" s="93"/>
@@ -9079,42 +9067,42 @@
     <row r="90" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="58"/>
       <c r="D90" s="85" t="s">
-        <v>665</v>
+        <v>729</v>
       </c>
       <c r="E90" s="85" t="s">
-        <v>787</v>
+        <v>426</v>
       </c>
       <c r="F90" s="85" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G90" s="85" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H90" s="85" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="I90" s="85"/>
       <c r="J90" s="85" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="K90" s="85" t="s">
-        <v>632</v>
+        <v>773</v>
       </c>
       <c r="L90" s="85" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="M90" s="85" t="s">
-        <v>731</v>
+        <v>443</v>
       </c>
       <c r="N90" s="85"/>
       <c r="O90" s="85" t="s">
-        <v>740</v>
+        <v>677</v>
       </c>
       <c r="P90" s="85" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="Q90" s="85" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="R90" s="85"/>
       <c r="S90" s="96"/>
@@ -9143,43 +9131,43 @@
     <row r="92" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="56"/>
       <c r="D92" s="84" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E92" s="84" t="s">
-        <v>726</v>
+        <v>778</v>
       </c>
       <c r="F92" s="84"/>
       <c r="G92" s="84" t="s">
-        <v>734</v>
+        <v>673</v>
       </c>
       <c r="H92" s="84" t="s">
-        <v>644</v>
+        <v>713</v>
       </c>
       <c r="I92" s="84" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="J92" s="84" t="s">
-        <v>741</v>
+        <v>780</v>
       </c>
       <c r="K92" s="84" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="L92" s="84"/>
       <c r="M92" s="84"/>
       <c r="N92" s="84" t="s">
-        <v>435</v>
+        <v>770</v>
       </c>
       <c r="O92" s="84" t="s">
-        <v>545</v>
+        <v>708</v>
       </c>
       <c r="P92" s="84" t="s">
-        <v>766</v>
+        <v>695</v>
       </c>
       <c r="Q92" s="84" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="R92" s="84" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="S92" s="93"/>
       <c r="V92" s="60"/>
@@ -9240,43 +9228,43 @@
     <row r="94" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="58"/>
       <c r="D94" s="85" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E94" s="85" t="s">
-        <v>727</v>
+        <v>779</v>
       </c>
       <c r="F94" s="85"/>
       <c r="G94" s="85" t="s">
-        <v>735</v>
+        <v>674</v>
       </c>
       <c r="H94" s="85" t="s">
-        <v>645</v>
+        <v>714</v>
       </c>
       <c r="I94" s="85" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="J94" s="85" t="s">
-        <v>742</v>
+        <v>781</v>
       </c>
       <c r="K94" s="85" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="L94" s="85"/>
       <c r="M94" s="85"/>
       <c r="N94" s="85" t="s">
-        <v>436</v>
+        <v>771</v>
       </c>
       <c r="O94" s="85" t="s">
-        <v>546</v>
+        <v>709</v>
       </c>
       <c r="P94" s="85" t="s">
-        <v>767</v>
+        <v>696</v>
       </c>
       <c r="Q94" s="85" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="R94" s="85" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="S94" s="96"/>
       <c r="V94" s="60"/>
@@ -9304,10 +9292,10 @@
     <row r="96" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="56"/>
       <c r="D96" s="84" t="s">
-        <v>743</v>
+        <v>678</v>
       </c>
       <c r="E96" s="84" t="s">
-        <v>788</v>
+        <v>706</v>
       </c>
       <c r="F96" s="84"/>
       <c r="G96" s="84"/>
@@ -9359,10 +9347,10 @@
     <row r="98" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="58"/>
       <c r="D98" s="85" t="s">
-        <v>744</v>
+        <v>679</v>
       </c>
       <c r="E98" s="85" t="s">
-        <v>789</v>
+        <v>707</v>
       </c>
       <c r="F98" s="85"/>
       <c r="G98" s="85"/>
@@ -9488,37 +9476,37 @@
       <c r="D104" s="84"/>
       <c r="E104" s="84"/>
       <c r="F104" s="84" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="G104" s="84" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="H104" s="84"/>
       <c r="I104" s="84" t="s">
-        <v>642</v>
+        <v>613</v>
       </c>
       <c r="J104" s="84" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K104" s="84" t="s">
-        <v>680</v>
+        <v>637</v>
       </c>
       <c r="L104" s="84"/>
       <c r="M104" s="84" t="s">
-        <v>450</v>
+        <v>647</v>
       </c>
       <c r="N104" s="84" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="O104" s="84" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P104" s="84" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="Q104" s="84"/>
       <c r="R104" s="84" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="S104" s="93"/>
       <c r="V104" s="60"/>
@@ -9581,37 +9569,37 @@
       <c r="D106" s="85"/>
       <c r="E106" s="85"/>
       <c r="F106" s="85" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G106" s="85" t="s">
-        <v>632</v>
+        <v>773</v>
       </c>
       <c r="H106" s="85"/>
       <c r="I106" s="85" t="s">
-        <v>643</v>
+        <v>614</v>
       </c>
       <c r="J106" s="85" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K106" s="85" t="s">
-        <v>681</v>
+        <v>638</v>
       </c>
       <c r="L106" s="85"/>
       <c r="M106" s="85" t="s">
-        <v>451</v>
+        <v>648</v>
       </c>
       <c r="N106" s="85" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="O106" s="85" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="P106" s="85" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q106" s="85"/>
       <c r="R106" s="85" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="S106" s="96"/>
       <c r="V106" s="60"/>
@@ -9639,43 +9627,43 @@
     <row r="108" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="56"/>
       <c r="D108" s="84" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="E108" s="84" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F108" s="84" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G108" s="84"/>
       <c r="H108" s="84" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="I108" s="84" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="J108" s="84" t="s">
-        <v>622</v>
+        <v>784</v>
       </c>
       <c r="K108" s="84"/>
       <c r="L108" s="84" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="M108" s="84" t="s">
         <v>415</v>
       </c>
       <c r="N108" s="84" t="s">
-        <v>746</v>
+        <v>786</v>
       </c>
       <c r="O108" s="84"/>
       <c r="P108" s="84" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="Q108" s="84" t="s">
-        <v>712</v>
+        <v>754</v>
       </c>
       <c r="R108" s="84" t="s">
-        <v>734</v>
+        <v>673</v>
       </c>
       <c r="S108" s="93"/>
       <c r="V108" s="60"/>
@@ -9736,43 +9724,43 @@
     <row r="110" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="58"/>
       <c r="D110" s="85" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="E110" s="85" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="F110" s="85" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G110" s="85"/>
       <c r="H110" s="85" t="s">
-        <v>745</v>
+        <v>680</v>
       </c>
       <c r="I110" s="85" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="J110" s="85" t="s">
-        <v>623</v>
+        <v>785</v>
       </c>
       <c r="K110" s="85"/>
       <c r="L110" s="85" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="M110" s="85" t="s">
         <v>416</v>
       </c>
       <c r="N110" s="85" t="s">
-        <v>747</v>
+        <v>787</v>
       </c>
       <c r="O110" s="85"/>
       <c r="P110" s="85" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="Q110" s="85" t="s">
-        <v>713</v>
+        <v>755</v>
       </c>
       <c r="R110" s="85" t="s">
-        <v>735</v>
+        <v>674</v>
       </c>
       <c r="S110" s="96"/>
       <c r="V110" s="60"/>
@@ -9804,38 +9792,38 @@
         <v>415</v>
       </c>
       <c r="F112" s="84" t="s">
-        <v>746</v>
+        <v>786</v>
       </c>
       <c r="G112" s="84" t="s">
-        <v>624</v>
+        <v>598</v>
       </c>
       <c r="H112" s="84" t="s">
-        <v>748</v>
+        <v>474</v>
       </c>
       <c r="I112" s="84" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="J112" s="84" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="K112" s="84" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L112" s="84" t="s">
-        <v>774</v>
+        <v>701</v>
       </c>
       <c r="M112" s="84"/>
       <c r="N112" s="84" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="O112" s="84" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P112" s="84" t="s">
-        <v>724</v>
+        <v>667</v>
       </c>
       <c r="Q112" s="84" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="R112" s="84"/>
       <c r="S112" s="93"/>
@@ -9901,38 +9889,38 @@
         <v>416</v>
       </c>
       <c r="F114" s="85" t="s">
-        <v>747</v>
+        <v>787</v>
       </c>
       <c r="G114" s="85" t="s">
-        <v>625</v>
+        <v>599</v>
       </c>
       <c r="H114" s="85" t="s">
-        <v>749</v>
+        <v>475</v>
       </c>
       <c r="I114" s="85" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="J114" s="85" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="K114" s="85" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L114" s="85" t="s">
-        <v>775</v>
+        <v>702</v>
       </c>
       <c r="M114" s="85"/>
       <c r="N114" s="85" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="O114" s="85" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="P114" s="85" t="s">
-        <v>725</v>
+        <v>668</v>
       </c>
       <c r="Q114" s="85" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="R114" s="85"/>
       <c r="S114" s="96"/>
@@ -9961,22 +9949,22 @@
     <row r="116" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="56"/>
       <c r="D116" s="84" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E116" s="84" t="s">
-        <v>750</v>
+        <v>681</v>
       </c>
       <c r="F116" s="84" t="s">
-        <v>435</v>
+        <v>770</v>
       </c>
       <c r="G116" s="84" t="s">
-        <v>664</v>
+        <v>728</v>
       </c>
       <c r="H116" s="84" t="s">
-        <v>642</v>
+        <v>613</v>
       </c>
       <c r="I116" s="84" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J116" s="84"/>
       <c r="K116" s="84"/>
@@ -10030,22 +10018,22 @@
     <row r="118" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="58"/>
       <c r="D118" s="85" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="E118" s="85" t="s">
-        <v>751</v>
+        <v>682</v>
       </c>
       <c r="F118" s="85" t="s">
-        <v>436</v>
+        <v>771</v>
       </c>
       <c r="G118" s="85" t="s">
-        <v>665</v>
+        <v>729</v>
       </c>
       <c r="H118" s="85" t="s">
-        <v>643</v>
+        <v>614</v>
       </c>
       <c r="I118" s="85" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J118" s="85"/>
       <c r="K118" s="85"/>
@@ -10167,39 +10155,39 @@
       <c r="D124" s="84"/>
       <c r="E124" s="84"/>
       <c r="F124" s="84" t="s">
-        <v>706</v>
+        <v>659</v>
       </c>
       <c r="G124" s="84" t="s">
-        <v>794</v>
+        <v>710</v>
       </c>
       <c r="H124" s="84" t="s">
-        <v>752</v>
+        <v>683</v>
       </c>
       <c r="I124" s="84" t="s">
-        <v>734</v>
+        <v>673</v>
       </c>
       <c r="J124" s="84" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="K124" s="84"/>
       <c r="L124" s="84" t="s">
-        <v>704</v>
+        <v>657</v>
       </c>
       <c r="M124" s="84" t="s">
-        <v>556</v>
+        <v>790</v>
       </c>
       <c r="N124" s="84" t="s">
-        <v>734</v>
+        <v>673</v>
       </c>
       <c r="O124" s="84" t="s">
-        <v>788</v>
+        <v>706</v>
       </c>
       <c r="P124" s="84"/>
       <c r="Q124" s="84" t="s">
-        <v>568</v>
+        <v>742</v>
       </c>
       <c r="R124" s="84" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="S124" s="93"/>
       <c r="V124" s="60"/>
@@ -10262,39 +10250,39 @@
       <c r="D126" s="85"/>
       <c r="E126" s="85"/>
       <c r="F126" s="85" t="s">
-        <v>707</v>
+        <v>660</v>
       </c>
       <c r="G126" s="85" t="s">
-        <v>795</v>
+        <v>711</v>
       </c>
       <c r="H126" s="85" t="s">
-        <v>753</v>
+        <v>684</v>
       </c>
       <c r="I126" s="85" t="s">
-        <v>735</v>
+        <v>674</v>
       </c>
       <c r="J126" s="85" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="K126" s="85"/>
       <c r="L126" s="85" t="s">
-        <v>705</v>
+        <v>658</v>
       </c>
       <c r="M126" s="85" t="s">
-        <v>557</v>
+        <v>791</v>
       </c>
       <c r="N126" s="85" t="s">
-        <v>735</v>
+        <v>674</v>
       </c>
       <c r="O126" s="85" t="s">
-        <v>789</v>
+        <v>707</v>
       </c>
       <c r="P126" s="85"/>
       <c r="Q126" s="85" t="s">
-        <v>569</v>
+        <v>743</v>
       </c>
       <c r="R126" s="85" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="S126" s="96"/>
       <c r="V126" s="60"/>
@@ -10323,40 +10311,40 @@
       <c r="B128" s="56"/>
       <c r="D128" s="84"/>
       <c r="E128" s="84" t="s">
-        <v>754</v>
+        <v>685</v>
       </c>
       <c r="F128" s="84" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G128" s="84" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="H128" s="84" t="s">
-        <v>774</v>
+        <v>701</v>
       </c>
       <c r="I128" s="84"/>
       <c r="J128" s="84" t="s">
-        <v>756</v>
+        <v>687</v>
       </c>
       <c r="K128" s="84" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="L128" s="84"/>
       <c r="M128" s="84" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="N128" s="84" t="s">
-        <v>639</v>
+        <v>610</v>
       </c>
       <c r="O128" s="84" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="P128" s="84"/>
       <c r="Q128" s="84" t="s">
-        <v>758</v>
+        <v>792</v>
       </c>
       <c r="R128" s="84" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="S128" s="93"/>
       <c r="V128" s="60"/>
@@ -10369,13 +10357,13 @@
       <c r="D129" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="E129" s="106" t="s">
-        <v>629</v>
+      <c r="E129" s="100" t="s">
+        <v>603</v>
       </c>
       <c r="F129" s="80" t="s">
         <v>256</v>
       </c>
-      <c r="G129" s="81" t="s">
+      <c r="G129" s="80" t="s">
         <v>358</v>
       </c>
       <c r="H129" s="80" t="s">
@@ -10418,40 +10406,40 @@
       <c r="B130" s="58"/>
       <c r="D130" s="85"/>
       <c r="E130" s="85" t="s">
-        <v>755</v>
+        <v>686</v>
       </c>
       <c r="F130" s="85" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G130" s="85" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="H130" s="85" t="s">
-        <v>775</v>
+        <v>702</v>
       </c>
       <c r="I130" s="85"/>
       <c r="J130" s="85" t="s">
-        <v>757</v>
+        <v>688</v>
       </c>
       <c r="K130" s="85" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="L130" s="85"/>
       <c r="M130" s="85" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="N130" s="85" t="s">
-        <v>640</v>
+        <v>611</v>
       </c>
       <c r="O130" s="85" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="P130" s="85"/>
       <c r="Q130" s="85" t="s">
-        <v>759</v>
+        <v>793</v>
       </c>
       <c r="R130" s="85" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="S130" s="96"/>
       <c r="V130" s="60"/>
@@ -10479,16 +10467,16 @@
     <row r="132" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="56"/>
       <c r="D132" s="84" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="E132" s="84" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="F132" s="84" t="s">
-        <v>760</v>
+        <v>689</v>
       </c>
       <c r="G132" s="84" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="H132" s="84"/>
       <c r="I132" s="84"/>
@@ -10540,16 +10528,16 @@
     <row r="134" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="58"/>
       <c r="D134" s="85" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E134" s="85" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="F134" s="85" t="s">
-        <v>761</v>
+        <v>690</v>
       </c>
       <c r="G134" s="85" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H134" s="85"/>
       <c r="I134" s="85"/>
@@ -12744,27 +12732,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="45" priority="37">
+    <cfRule type="expression" dxfId="45" priority="38">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="37">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="38">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="43" priority="35">
+    <cfRule type="expression" dxfId="43" priority="36">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="35">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="36">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="41" priority="33">
+    <cfRule type="expression" dxfId="41" priority="34">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="33">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="34">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
@@ -12776,27 +12764,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="37" priority="45">
+    <cfRule type="expression" dxfId="37" priority="46">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="45">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="46">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="35" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="33" priority="28">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="27">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="28">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
@@ -12808,19 +12796,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="29" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="27" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
@@ -12832,19 +12820,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="23" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="17">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="21" priority="16">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="15">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
@@ -12856,11 +12844,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="17" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
@@ -12872,11 +12860,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="13" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
@@ -12896,11 +12884,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
@@ -12989,7 +12977,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -13007,7 +12995,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="104" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -13032,7 +13020,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="104"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -13052,7 +13040,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="104"/>
+      <c r="I6" s="105"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -13074,7 +13062,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="104"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -13090,7 +13078,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="104"/>
+      <c r="I7" s="105"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -13112,7 +13100,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="104"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -13128,7 +13116,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="104"/>
+      <c r="I8" s="105"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -13150,7 +13138,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="104"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -13166,7 +13154,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="104"/>
+      <c r="I9" s="105"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -13188,7 +13176,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="105"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -13204,7 +13192,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="105"/>
+      <c r="I10" s="106"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -13227,7 +13215,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="104" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -13245,7 +13233,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="103" t="s">
+      <c r="I11" s="104" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -13269,7 +13257,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="104"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -13289,7 +13277,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="104"/>
+      <c r="I12" s="105"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -13309,7 +13297,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="104"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -13323,7 +13311,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="104"/>
+      <c r="I13" s="105"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -13343,7 +13331,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="104"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -13357,7 +13345,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="104"/>
+      <c r="I14" s="105"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -13377,7 +13365,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="104"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -13391,7 +13379,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="104"/>
+      <c r="I15" s="105"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -13411,7 +13399,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="105"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -13425,7 +13413,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="105"/>
+      <c r="I16" s="106"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>

--- a/output5/【河洛話注音】桃花源記【文讀音】.xlsx
+++ b/output5/【河洛話注音】桃花源記【文讀音】.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{679082E1-F881-4FC8-80FC-1AF497F08CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{565644C9-0D6C-449D-A507-3B034A2281CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="800">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1481,1865 +1481,1895 @@
     <t>遂</t>
   </si>
   <si>
+    <t>間</t>
+  </si>
+  <si>
+    <t>」</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>漢</t>
+  </si>
+  <si>
+    <t>魏</t>
+  </si>
+  <si>
+    <t>！</t>
+  </si>
+  <si>
+    <t>言</t>
+  </si>
+  <si>
+    <t>皆</t>
+  </si>
+  <si>
+    <t>惋</t>
+  </si>
+  <si>
+    <t>餘</t>
+  </si>
+  <si>
+    <t>延</t>
+  </si>
+  <si>
+    <t>至</t>
+  </si>
+  <si>
+    <t>停</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>辭</t>
+  </si>
+  <si>
+    <t>語</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>也</t>
+  </si>
+  <si>
+    <t>既</t>
+  </si>
+  <si>
+    <t>處</t>
+  </si>
+  <si>
+    <t>誌</t>
+  </si>
+  <si>
+    <t>及</t>
+  </si>
+  <si>
+    <t>郡</t>
+  </si>
+  <si>
+    <t>守</t>
+  </si>
+  <si>
+    <t>說</t>
+  </si>
+  <si>
+    <t>遣</t>
+  </si>
+  <si>
+    <t>隨</t>
+  </si>
+  <si>
+    <t>尋</t>
+  </si>
+  <si>
+    <t>迷</t>
+  </si>
+  <si>
+    <t>南</t>
+  </si>
+  <si>
+    <t>陽</t>
+  </si>
+  <si>
+    <t>劉</t>
+  </si>
+  <si>
+    <t>驥</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>規</t>
+  </si>
+  <si>
+    <t>未</t>
+  </si>
+  <si>
+    <t>果</t>
+  </si>
+  <si>
+    <t>病</t>
+  </si>
+  <si>
+    <t>終</t>
+  </si>
+  <si>
+    <t>後</t>
+  </si>
+  <si>
+    <t>津</t>
+  </si>
+  <si>
+    <t>者</t>
+  </si>
+  <si>
+    <t>鮮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>種</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>著</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>並</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>問</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>還</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ke1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄣ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㄞ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㄚㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㆤˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hua1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄚˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄚㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pian7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>san1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ka1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄚˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆤˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khian2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄧㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiau5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄠˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄞˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ham5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆰˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄣ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>un5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄨㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄚㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>han3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄨㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄞˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kun7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨㄣ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ge7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bun7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨㄣ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>than3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ling5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lim5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㆬˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>song1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄞ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㆬˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>語音類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文讀音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花源記【文讀音】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㄥ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kap4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄚㆴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㄧㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄣˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄠˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khio2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄧㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄚㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄞˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄇㄧㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kau1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄠˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nam5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㆰˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ku7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tap4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄚㆴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ting5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>me5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄇㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄣˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jia5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄚˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kian3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iau1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄠˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hio2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giam2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㆰˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gue7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄨㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄜˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨㆵˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ce1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㆤˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>與</t>
-  </si>
-  <si>
-    <t>間</t>
-  </si>
-  <si>
-    <t>」</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>何</t>
-  </si>
-  <si>
-    <t>？</t>
-  </si>
-  <si>
-    <t>漢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>論</t>
-  </si>
-  <si>
-    <t>魏</t>
-  </si>
-  <si>
-    <t>！</t>
-  </si>
-  <si>
-    <t>言</t>
-  </si>
-  <si>
-    <t>皆</t>
-  </si>
-  <si>
-    <t>惋</t>
-  </si>
-  <si>
-    <t>餘</t>
-  </si>
-  <si>
-    <t>延</t>
-  </si>
-  <si>
-    <t>至</t>
-  </si>
-  <si>
-    <t>停</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>辭</t>
-  </si>
-  <si>
-    <t>語</t>
-  </si>
-  <si>
-    <t>足</t>
-  </si>
-  <si>
-    <t>道</t>
-  </si>
-  <si>
-    <t>也</t>
-  </si>
-  <si>
-    <t>既</t>
-  </si>
-  <si>
-    <t>向</t>
-  </si>
-  <si>
-    <t>處</t>
-  </si>
-  <si>
-    <t>誌</t>
-  </si>
-  <si>
-    <t>及</t>
-  </si>
-  <si>
-    <t>郡</t>
-  </si>
-  <si>
-    <t>守</t>
-  </si>
-  <si>
-    <t>說</t>
-  </si>
-  <si>
-    <t>遣</t>
-  </si>
-  <si>
-    <t>隨</t>
-  </si>
-  <si>
-    <t>尋</t>
-  </si>
-  <si>
-    <t>迷</t>
-  </si>
-  <si>
-    <t>南</t>
-  </si>
-  <si>
-    <t>陽</t>
-  </si>
-  <si>
-    <t>劉</t>
-  </si>
-  <si>
-    <t>驥</t>
-  </si>
-  <si>
-    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>尚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>士</t>
-  </si>
-  <si>
-    <t>規</t>
-  </si>
-  <si>
-    <t>未</t>
-  </si>
-  <si>
-    <t>果</t>
-  </si>
-  <si>
-    <t>病</t>
-  </si>
-  <si>
-    <t>終</t>
-  </si>
-  <si>
-    <t>後</t>
-  </si>
-  <si>
-    <t>津</t>
-  </si>
-  <si>
-    <t>者</t>
-  </si>
-  <si>
-    <t>鮮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>種</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>著</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>髫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>並</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>見</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>問</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>還</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>殺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ke1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>村</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>避</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>便</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zin3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄣ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㄞ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄨㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄧㄚㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khe1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㆤˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hua1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄚˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄚㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄥˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ki5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>san1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄢˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㆲˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thoo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㆲ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ka1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄚˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆤˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khian2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄧㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆲ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄞˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiau5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄠˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nai2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄞˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ham5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆰˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sin3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄣ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>un5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>luan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄨㄢ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㄚㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>king2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄥˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄢˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ho5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>han3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄢ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄨㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄞˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uan3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄢ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ki3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kun7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄨㄣ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ge7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄨㄧˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ko2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆬˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆲˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bun7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄨㄣ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>than3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㄢ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ling5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lim5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㆬˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄢ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>song1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆲˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tai7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄞ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kim1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㆬˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>語音類型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文讀音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃花源記【文讀音】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄠˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄢˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㆲˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>king1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄥˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㄥ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>piong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tau5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄠˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kap4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄚㆴ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㆲˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㄧㄣˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㄣˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zin2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄣˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄠˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khio2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄧㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄚㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄞˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liam2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㆰˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄇㄧㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kau1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄠˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nam5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㆰˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㄥˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zi7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ku7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tap4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄚㆴ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zi2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ting5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄠˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>me5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄇㆤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄣˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄨㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄣˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zian1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆲˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zut1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㆵˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆴ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆲˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄧㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kin2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄣˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sian1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄢˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆬˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>piu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jia5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㄚˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆲˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄞˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆲˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄨㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆲˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zoo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㆦ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ju5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆡㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gau7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄠ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kian3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄢ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iau1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄠˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄞ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ze1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㆤˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>piu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㄨˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zui3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ian1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄢˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄨㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ha2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sue3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hio2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㆲ˪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3347,7 +3377,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="81">
+  <fonts count="83">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -3913,6 +3943,21 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="吳守禮細明台語破音01"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="吳守禮細明台語注音"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -4084,7 +4129,7 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4393,6 +4438,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5552,7 +5606,7 @@
         <v>181</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -5613,7 +5667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:AC242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A122" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
@@ -5680,46 +5734,46 @@
       <c r="D4" s="84"/>
       <c r="E4" s="84"/>
       <c r="F4" s="84" t="s">
+        <v>407</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>409</v>
+      </c>
+      <c r="H4" s="84" t="s">
+        <v>411</v>
+      </c>
+      <c r="I4" s="84" t="s">
+        <v>691</v>
+      </c>
+      <c r="J4" s="84" t="s">
+        <v>682</v>
+      </c>
+      <c r="K4" s="84" t="s">
         <v>413</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="L4" s="84" t="s">
+        <v>560</v>
+      </c>
+      <c r="M4" s="84" t="s">
+        <v>562</v>
+      </c>
+      <c r="N4" s="84" t="s">
+        <v>681</v>
+      </c>
+      <c r="O4" s="84" t="s">
         <v>415</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="P4" s="84" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q4" s="84" t="s">
+        <v>754</v>
+      </c>
+      <c r="R4" s="84" t="s">
         <v>417</v>
       </c>
-      <c r="I4" s="84" t="s">
-        <v>713</v>
-      </c>
-      <c r="J4" s="84" t="s">
-        <v>692</v>
-      </c>
-      <c r="K4" s="84" t="s">
-        <v>419</v>
-      </c>
-      <c r="L4" s="84" t="s">
-        <v>564</v>
-      </c>
-      <c r="M4" s="84" t="s">
-        <v>566</v>
-      </c>
-      <c r="N4" s="84" t="s">
-        <v>691</v>
-      </c>
-      <c r="O4" s="84" t="s">
-        <v>421</v>
-      </c>
-      <c r="P4" s="84" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q4" s="84" t="s">
-        <v>695</v>
-      </c>
-      <c r="R4" s="84" t="s">
-        <v>423</v>
-      </c>
       <c r="S4" s="93" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="T4" s="1">
         <v>8</v>
@@ -5784,39 +5838,39 @@
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
       <c r="F6" s="85" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H6" s="85" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="I6" s="85" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="J6" s="85"/>
       <c r="K6" s="85" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L6" s="85" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="M6" s="85" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="N6" s="85"/>
       <c r="O6" s="85" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="P6" s="85" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="Q6" s="85" t="s">
-        <v>696</v>
+        <v>755</v>
       </c>
       <c r="R6" s="85" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="S6" s="95"/>
       <c r="V6" s="102"/>
@@ -5828,7 +5882,7 @@
       <c r="E7" s="83"/>
       <c r="F7" s="83"/>
       <c r="G7" s="83" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H7" s="83"/>
       <c r="I7" s="83"/>
@@ -5848,47 +5902,47 @@
       <c r="B8" s="56"/>
       <c r="D8" s="84"/>
       <c r="E8" s="84" t="s">
-        <v>715</v>
+        <v>693</v>
       </c>
       <c r="F8" s="84" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H8" s="84"/>
       <c r="I8" s="84" t="s">
-        <v>718</v>
+        <v>696</v>
       </c>
       <c r="J8" s="84" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="K8" s="84" t="s">
+        <v>425</v>
+      </c>
+      <c r="L8" s="84" t="s">
+        <v>698</v>
+      </c>
+      <c r="M8" s="84" t="s">
+        <v>700</v>
+      </c>
+      <c r="N8" s="84" t="s">
+        <v>681</v>
+      </c>
+      <c r="O8" s="84" t="s">
+        <v>427</v>
+      </c>
+      <c r="P8" s="84" t="s">
+        <v>756</v>
+      </c>
+      <c r="Q8" s="84" t="s">
+        <v>758</v>
+      </c>
+      <c r="R8" s="84" t="s">
         <v>431</v>
       </c>
-      <c r="L8" s="84" t="s">
-        <v>720</v>
-      </c>
-      <c r="M8" s="84" t="s">
-        <v>722</v>
-      </c>
-      <c r="N8" s="84" t="s">
-        <v>691</v>
-      </c>
-      <c r="O8" s="84" t="s">
-        <v>433</v>
-      </c>
-      <c r="P8" s="84" t="s">
-        <v>615</v>
-      </c>
-      <c r="Q8" s="84" t="s">
-        <v>617</v>
-      </c>
-      <c r="R8" s="84" t="s">
-        <v>437</v>
-      </c>
       <c r="S8" s="93" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="T8" s="1">
         <v>1</v>
@@ -5953,42 +6007,42 @@
       <c r="B10" s="58"/>
       <c r="D10" s="85"/>
       <c r="E10" s="85" t="s">
-        <v>716</v>
+        <v>694</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G10" s="85" t="s">
-        <v>717</v>
+        <v>695</v>
       </c>
       <c r="H10" s="85"/>
       <c r="I10" s="85" t="s">
-        <v>719</v>
+        <v>697</v>
       </c>
       <c r="J10" s="85" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K10" s="85" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L10" s="85" t="s">
-        <v>721</v>
+        <v>699</v>
       </c>
       <c r="M10" s="85" t="s">
-        <v>723</v>
+        <v>701</v>
       </c>
       <c r="N10" s="85"/>
       <c r="O10" s="85" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="P10" s="85" t="s">
-        <v>616</v>
+        <v>757</v>
       </c>
       <c r="Q10" s="85" t="s">
-        <v>618</v>
+        <v>759</v>
       </c>
       <c r="R10" s="85" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="S10" s="96"/>
       <c r="V10" s="102"/>
@@ -6016,43 +6070,43 @@
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="84" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E12" s="84"/>
       <c r="F12" s="84" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="G12" s="84" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="I12" s="84" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="J12" s="84" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="K12" s="84"/>
       <c r="L12" s="84" t="s">
-        <v>713</v>
+        <v>691</v>
       </c>
       <c r="M12" s="84" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="N12" s="84" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="O12" s="84" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="P12" s="84"/>
       <c r="Q12" s="84" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="R12" s="84" t="s">
-        <v>697</v>
+        <v>776</v>
       </c>
       <c r="S12" s="93"/>
       <c r="V12" s="102"/>
@@ -6104,7 +6158,7 @@
       <c r="Q13" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="R13" s="98" t="s">
+      <c r="R13" s="100" t="s">
         <v>221</v>
       </c>
       <c r="S13" s="94"/>
@@ -6113,43 +6167,43 @@
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="85" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E14" s="85"/>
       <c r="F14" s="85" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G14" s="85" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H14" s="85" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="I14" s="85" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="J14" s="85" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K14" s="85"/>
       <c r="L14" s="85" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="M14" s="85" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="N14" s="85" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="O14" s="85" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="P14" s="85"/>
       <c r="Q14" s="85" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="R14" s="85" t="s">
-        <v>604</v>
+        <v>777</v>
       </c>
       <c r="S14" s="96"/>
       <c r="V14" s="102"/>
@@ -6180,43 +6234,43 @@
     <row r="16" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="84" t="s">
-        <v>724</v>
+        <v>702</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F16" s="84"/>
       <c r="G16" s="84" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H16" s="84" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="I16" s="84" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="J16" s="84" t="s">
-        <v>625</v>
+        <v>760</v>
       </c>
       <c r="K16" s="84"/>
       <c r="L16" s="84" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="M16" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="N16" s="84" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
       <c r="O16" s="84" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="P16" s="84" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="Q16" s="84"/>
       <c r="R16" s="84" t="s">
-        <v>728</v>
+        <v>772</v>
       </c>
       <c r="S16" s="93"/>
       <c r="V16" s="102"/>
@@ -6227,7 +6281,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E17" s="80" t="s">
         <v>222</v>
@@ -6236,7 +6290,7 @@
         <v>190</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H17" s="80" t="s">
         <v>223</v>
@@ -6257,7 +6311,7 @@
         <v>193</v>
       </c>
       <c r="N17" s="80" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O17" s="80" t="s">
         <v>227</v>
@@ -6277,43 +6331,43 @@
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="85" t="s">
-        <v>725</v>
+        <v>703</v>
       </c>
       <c r="E18" s="85" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F18" s="85"/>
       <c r="G18" s="85" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="H18" s="85" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="I18" s="85" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="J18" s="85" t="s">
-        <v>626</v>
+        <v>761</v>
       </c>
       <c r="K18" s="85"/>
       <c r="L18" s="85" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="M18" s="85" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="N18" s="85" t="s">
-        <v>727</v>
+        <v>705</v>
       </c>
       <c r="O18" s="85" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="P18" s="85" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="Q18" s="85"/>
       <c r="R18" s="85" t="s">
-        <v>729</v>
+        <v>773</v>
       </c>
       <c r="S18" s="96"/>
       <c r="V18" s="102"/>
@@ -6341,23 +6395,23 @@
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="84" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E20" s="84" t="s">
-        <v>435</v>
+        <v>564</v>
       </c>
       <c r="F20" s="84"/>
       <c r="G20" s="84" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H20" s="84" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I20" s="84" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="J20" s="84" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K20" s="84"/>
       <c r="L20" s="84"/>
@@ -6376,9 +6430,9 @@
         <v>5</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>369</v>
-      </c>
-      <c r="E21" s="80" t="s">
+        <v>363</v>
+      </c>
+      <c r="E21" s="98" t="s">
         <v>200</v>
       </c>
       <c r="F21" s="80" t="s">
@@ -6388,7 +6442,7 @@
         <v>230</v>
       </c>
       <c r="H21" s="80" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="I21" s="80" t="s">
         <v>231</v>
@@ -6412,23 +6466,23 @@
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="85" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E22" s="85" t="s">
-        <v>436</v>
+        <v>695</v>
       </c>
       <c r="F22" s="85"/>
       <c r="G22" s="85" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H22" s="85" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="I22" s="85" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="J22" s="85" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="K22" s="85"/>
       <c r="L22" s="85"/>
@@ -6557,39 +6611,39 @@
       <c r="D28" s="84"/>
       <c r="E28" s="84"/>
       <c r="F28" s="84" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="G28" s="84" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="H28" s="84" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="I28" s="84" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="J28" s="84"/>
       <c r="K28" s="84" t="s">
-        <v>647</v>
+        <v>442</v>
       </c>
       <c r="L28" s="84" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="M28" s="84" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="N28" s="84" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="O28" s="84"/>
       <c r="P28" s="84" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Q28" s="84" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="R28" s="84" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S28" s="93"/>
       <c r="U28" s="67" t="str">
@@ -6660,39 +6714,39 @@
       <c r="D30" s="85"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G30" s="85" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="H30" s="85" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="I30" s="85" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J30" s="85"/>
       <c r="K30" s="85" t="s">
-        <v>648</v>
+        <v>443</v>
       </c>
       <c r="L30" s="85" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="M30" s="85" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="N30" s="85" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O30" s="85"/>
       <c r="P30" s="85" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="Q30" s="85" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="R30" s="85" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="S30" s="96"/>
       <c r="U30" s="67" t="str">
@@ -6728,43 +6782,43 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="84" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="E32" s="84"/>
       <c r="F32" s="84" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="G32" s="84" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="H32" s="84" t="s">
-        <v>730</v>
+        <v>706</v>
       </c>
       <c r="I32" s="84" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="J32" s="84" t="s">
-        <v>732</v>
+        <v>708</v>
       </c>
       <c r="K32" s="84"/>
       <c r="L32" s="84" t="s">
-        <v>647</v>
+        <v>442</v>
       </c>
       <c r="M32" s="84" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="N32" s="84" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="O32" s="84"/>
       <c r="P32" s="84" t="s">
-        <v>736</v>
+        <v>712</v>
       </c>
       <c r="Q32" s="84" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="R32" s="84" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="S32" s="93"/>
       <c r="U32" s="67" t="str">
@@ -6802,7 +6856,7 @@
       <c r="K33" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="L33" s="80" t="s">
+      <c r="L33" s="98" t="s">
         <v>235</v>
       </c>
       <c r="M33" s="80" t="s">
@@ -6829,43 +6883,43 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="85" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="E34" s="85"/>
       <c r="F34" s="85" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G34" s="85" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H34" s="85" t="s">
-        <v>731</v>
+        <v>707</v>
       </c>
       <c r="I34" s="85" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J34" s="85" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="K34" s="85"/>
       <c r="L34" s="85" t="s">
-        <v>648</v>
+        <v>443</v>
       </c>
       <c r="M34" s="85" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="N34" s="85" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="O34" s="85"/>
       <c r="P34" s="85" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="Q34" s="85" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="R34" s="85" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="S34" s="96"/>
       <c r="V34" s="60"/>
@@ -6894,39 +6948,39 @@
       <c r="B36" s="56"/>
       <c r="D36" s="84"/>
       <c r="E36" s="84" t="s">
-        <v>698</v>
+        <v>778</v>
       </c>
       <c r="F36" s="84" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G36" s="84" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="H36" s="84"/>
       <c r="I36" s="84" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
       <c r="J36" s="84" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K36" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L36" s="84"/>
       <c r="M36" s="84" t="s">
-        <v>728</v>
+        <v>772</v>
       </c>
       <c r="N36" s="84" t="s">
-        <v>435</v>
+        <v>564</v>
       </c>
       <c r="O36" s="84" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="P36" s="84" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="Q36" s="84" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="R36" s="84"/>
       <c r="S36" s="93"/>
@@ -6989,39 +7043,39 @@
       <c r="B38" s="58"/>
       <c r="D38" s="85"/>
       <c r="E38" s="85" t="s">
-        <v>699</v>
+        <v>779</v>
       </c>
       <c r="F38" s="85" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G38" s="85" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="H38" s="85"/>
       <c r="I38" s="85" t="s">
-        <v>739</v>
+        <v>715</v>
       </c>
       <c r="J38" s="85" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K38" s="85" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="L38" s="85"/>
       <c r="M38" s="85" t="s">
-        <v>729</v>
+        <v>773</v>
       </c>
       <c r="N38" s="85" t="s">
-        <v>436</v>
+        <v>695</v>
       </c>
       <c r="O38" s="85" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="P38" s="85" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="Q38" s="85" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="R38" s="85"/>
       <c r="S38" s="96"/>
@@ -7050,42 +7104,42 @@
     <row r="40" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="56"/>
       <c r="D40" s="84" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E40" s="84" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F40" s="84" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="G40" s="84" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H40" s="84"/>
       <c r="I40" s="84" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="J40" s="84" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="K40" s="84" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="L40" s="84" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="M40" s="84"/>
       <c r="N40" s="84" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="O40" s="84" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="P40" s="84" t="s">
-        <v>649</v>
+        <v>762</v>
       </c>
       <c r="Q40" s="84" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="R40" s="84"/>
       <c r="S40" s="93"/>
@@ -7097,7 +7151,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="98" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E41" s="80" t="s">
         <v>256</v>
@@ -7147,42 +7201,42 @@
     <row r="42" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="58"/>
       <c r="D42" s="85" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F42" s="85" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="G42" s="85" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H42" s="85"/>
       <c r="I42" s="85" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="J42" s="85" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="K42" s="85" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="L42" s="85" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M42" s="85"/>
       <c r="N42" s="85" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="O42" s="85" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="P42" s="85" t="s">
-        <v>650</v>
+        <v>763</v>
       </c>
       <c r="Q42" s="85" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="R42" s="85"/>
       <c r="S42" s="96"/>
@@ -7211,41 +7265,41 @@
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
       <c r="D44" s="84" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E44" s="84" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="F44" s="84" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="G44" s="84"/>
       <c r="H44" s="84" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="I44" s="84" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J44" s="84"/>
       <c r="K44" s="84" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="L44" s="84"/>
       <c r="M44" s="84" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="N44" s="84" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="O44" s="84" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="P44" s="84"/>
       <c r="Q44" s="84" t="s">
-        <v>700</v>
+        <v>780</v>
       </c>
       <c r="R44" s="84" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="S44" s="93"/>
       <c r="V44" s="60"/>
@@ -7277,28 +7331,28 @@
         <v>267</v>
       </c>
       <c r="K45" s="80" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L45" s="80" t="s">
         <v>267</v>
       </c>
       <c r="M45" s="80" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="N45" s="80" t="s">
         <v>203</v>
       </c>
       <c r="O45" s="80" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="P45" s="80" t="s">
         <v>190</v>
       </c>
       <c r="Q45" s="80" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="R45" s="80" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="S45" s="94"/>
       <c r="V45" s="60"/>
@@ -7306,41 +7360,41 @@
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
       <c r="D46" s="85" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="F46" s="85" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="G46" s="85"/>
       <c r="H46" s="85" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I46" s="85" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="J46" s="85"/>
       <c r="K46" s="85" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L46" s="85"/>
       <c r="M46" s="85" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="N46" s="85" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="O46" s="85" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="P46" s="85"/>
       <c r="Q46" s="85" t="s">
-        <v>605</v>
+        <v>781</v>
       </c>
       <c r="R46" s="85" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="S46" s="96"/>
       <c r="V46" s="60"/>
@@ -7368,42 +7422,42 @@
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
       <c r="D48" s="84" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="E48" s="84" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F48" s="84"/>
       <c r="G48" s="84" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H48" s="84" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="I48" s="84" t="s">
-        <v>740</v>
+        <v>716</v>
       </c>
       <c r="J48" s="84" t="s">
-        <v>742</v>
+        <v>718</v>
       </c>
       <c r="K48" s="84"/>
       <c r="L48" s="84" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M48" s="84" t="s">
-        <v>713</v>
+        <v>691</v>
       </c>
       <c r="N48" s="84" t="s">
-        <v>701</v>
+        <v>764</v>
       </c>
       <c r="O48" s="84" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="P48" s="84" t="s">
-        <v>744</v>
+        <v>720</v>
       </c>
       <c r="Q48" s="84" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
       <c r="R48" s="84"/>
       <c r="S48" s="93"/>
@@ -7424,7 +7478,7 @@
         <v>190</v>
       </c>
       <c r="G49" s="80" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H49" s="80" t="s">
         <v>271</v>
@@ -7450,8 +7504,8 @@
       <c r="O49" s="80" t="s">
         <v>275</v>
       </c>
-      <c r="P49" s="80" t="s">
-        <v>379</v>
+      <c r="P49" s="100" t="s">
+        <v>373</v>
       </c>
       <c r="Q49" s="80" t="s">
         <v>276</v>
@@ -7465,42 +7519,42 @@
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
       <c r="D50" s="85" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F50" s="85"/>
       <c r="G50" s="85" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H50" s="85" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="I50" s="85" t="s">
-        <v>741</v>
+        <v>717</v>
       </c>
       <c r="J50" s="85" t="s">
-        <v>743</v>
+        <v>719</v>
       </c>
       <c r="K50" s="85"/>
       <c r="L50" s="85" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M50" s="85" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="N50" s="85" t="s">
-        <v>702</v>
+        <v>765</v>
       </c>
       <c r="O50" s="85" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P50" s="85" t="s">
-        <v>745</v>
+        <v>721</v>
       </c>
       <c r="Q50" s="85" t="s">
-        <v>747</v>
+        <v>723</v>
       </c>
       <c r="R50" s="85"/>
       <c r="S50" s="96"/>
@@ -7529,42 +7583,42 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="84" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="E52" s="84" t="s">
-        <v>748</v>
+        <v>724</v>
       </c>
       <c r="F52" s="84" t="s">
-        <v>750</v>
+        <v>726</v>
       </c>
       <c r="G52" s="84" t="s">
-        <v>752</v>
+        <v>582</v>
       </c>
       <c r="H52" s="84"/>
       <c r="I52" s="84" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="J52" s="84" t="s">
-        <v>754</v>
+        <v>728</v>
       </c>
       <c r="K52" s="84" t="s">
-        <v>525</v>
+        <v>766</v>
       </c>
       <c r="L52" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M52" s="84"/>
       <c r="N52" s="84" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="O52" s="84" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="P52" s="84" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="Q52" s="84" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="R52" s="84"/>
       <c r="S52" s="93"/>
@@ -7584,14 +7638,14 @@
       <c r="F53" s="80" t="s">
         <v>279</v>
       </c>
-      <c r="G53" s="81" t="s">
-        <v>380</v>
+      <c r="G53" s="107" t="s">
+        <v>374</v>
       </c>
       <c r="H53" s="81" t="s">
         <v>190</v>
       </c>
       <c r="I53" s="80" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="J53" s="80" t="s">
         <v>280</v>
@@ -7615,7 +7669,7 @@
         <v>284</v>
       </c>
       <c r="Q53" s="80" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="R53" s="80" t="s">
         <v>190</v>
@@ -7626,42 +7680,42 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="85" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>749</v>
+        <v>725</v>
       </c>
       <c r="F54" s="85" t="s">
-        <v>751</v>
+        <v>727</v>
       </c>
       <c r="G54" s="85" t="s">
-        <v>753</v>
+        <v>583</v>
       </c>
       <c r="H54" s="85"/>
       <c r="I54" s="85" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="J54" s="85" t="s">
-        <v>755</v>
+        <v>729</v>
       </c>
       <c r="K54" s="85" t="s">
-        <v>526</v>
+        <v>767</v>
       </c>
       <c r="L54" s="85" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M54" s="85"/>
       <c r="N54" s="85" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="O54" s="85" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P54" s="85" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="Q54" s="85" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="R54" s="85"/>
       <c r="S54" s="96"/>
@@ -7690,43 +7744,43 @@
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="56"/>
       <c r="D56" s="84" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="E56" s="84" t="s">
-        <v>756</v>
+        <v>730</v>
       </c>
       <c r="F56" s="84" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G56" s="84" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="H56" s="84" t="s">
-        <v>758</v>
+        <v>380</v>
       </c>
       <c r="I56" s="84"/>
       <c r="J56" s="84" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="K56" s="84" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="L56" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M56" s="84"/>
       <c r="N56" s="84" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="O56" s="84" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="P56" s="84" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="Q56" s="84"/>
       <c r="R56" s="84" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="S56" s="93"/>
       <c r="V56" s="60"/>
@@ -7737,28 +7791,28 @@
         <v>14</v>
       </c>
       <c r="D57" s="80" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E57" s="100" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F57" s="80" t="s">
         <v>256</v>
       </c>
       <c r="G57" s="81" t="s">
-        <v>385</v>
-      </c>
-      <c r="H57" s="81" t="s">
-        <v>712</v>
+        <v>379</v>
+      </c>
+      <c r="H57" s="107" t="s">
+        <v>690</v>
       </c>
       <c r="I57" s="80" t="s">
         <v>228</v>
       </c>
       <c r="J57" s="80" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K57" s="80" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L57" s="80" t="s">
         <v>193</v>
@@ -7770,7 +7824,7 @@
         <v>286</v>
       </c>
       <c r="O57" s="80" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="P57" s="80" t="s">
         <v>287</v>
@@ -7779,7 +7833,7 @@
         <v>190</v>
       </c>
       <c r="R57" s="80" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="S57" s="94"/>
       <c r="V57" s="60"/>
@@ -7787,43 +7841,43 @@
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="58"/>
       <c r="D58" s="85" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="E58" s="85" t="s">
-        <v>757</v>
+        <v>731</v>
       </c>
       <c r="F58" s="85" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G58" s="85" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="H58" s="85" t="s">
-        <v>759</v>
+        <v>478</v>
       </c>
       <c r="I58" s="85"/>
       <c r="J58" s="85" t="s">
-        <v>761</v>
+        <v>733</v>
       </c>
       <c r="K58" s="85" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L58" s="85" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M58" s="85"/>
       <c r="N58" s="85" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="O58" s="85" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="P58" s="85" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="Q58" s="85"/>
       <c r="R58" s="85" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="S58" s="96"/>
       <c r="V58" s="60"/>
@@ -7851,43 +7905,43 @@
     <row r="60" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="56"/>
       <c r="D60" s="84" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="E60" s="84" t="s">
-        <v>736</v>
+        <v>712</v>
       </c>
       <c r="F60" s="84" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G60" s="84"/>
       <c r="H60" s="84" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="I60" s="84" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="J60" s="84" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="K60" s="84"/>
       <c r="L60" s="84" t="s">
-        <v>647</v>
+        <v>442</v>
       </c>
       <c r="M60" s="84" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="N60" s="84" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="O60" s="84" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="P60" s="84"/>
       <c r="Q60" s="84" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="R60" s="84" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="S60" s="93"/>
       <c r="V60" s="60"/>
@@ -7921,14 +7975,14 @@
       <c r="K61" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="L61" s="80" t="s">
+      <c r="L61" s="98" t="s">
         <v>235</v>
       </c>
       <c r="M61" s="80" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="N61" s="80" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="O61" s="80" t="s">
         <v>292</v>
@@ -7948,43 +8002,43 @@
     <row r="62" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="58"/>
       <c r="D62" s="85" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="E62" s="85" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="F62" s="85" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G62" s="85"/>
       <c r="H62" s="85" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="I62" s="85" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="J62" s="85" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="K62" s="85"/>
       <c r="L62" s="85" t="s">
-        <v>648</v>
+        <v>443</v>
       </c>
       <c r="M62" s="85" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
       <c r="N62" s="85" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="O62" s="85" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="P62" s="85"/>
       <c r="Q62" s="85" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="R62" s="85" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="S62" s="96"/>
       <c r="V62" s="60"/>
@@ -8013,40 +8067,40 @@
       <c r="B64" s="56"/>
       <c r="D64" s="84"/>
       <c r="E64" s="84" t="s">
-        <v>764</v>
+        <v>586</v>
       </c>
       <c r="F64" s="84" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G64" s="84"/>
       <c r="H64" s="84" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
       <c r="I64" s="84" t="s">
-        <v>442</v>
+        <v>663</v>
       </c>
       <c r="J64" s="84"/>
       <c r="K64" s="84" t="s">
-        <v>703</v>
+        <v>782</v>
       </c>
       <c r="L64" s="84" t="s">
-        <v>713</v>
+        <v>691</v>
       </c>
       <c r="M64" s="84" t="s">
-        <v>742</v>
+        <v>718</v>
       </c>
       <c r="N64" s="84" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="O64" s="84" t="s">
-        <v>673</v>
+        <v>784</v>
       </c>
       <c r="P64" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="Q64" s="84"/>
       <c r="R64" s="84" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="S64" s="93"/>
       <c r="V64" s="60"/>
@@ -8059,8 +8113,8 @@
       <c r="D65" s="80" t="s">
         <v>267</v>
       </c>
-      <c r="E65" s="80" t="s">
-        <v>393</v>
+      <c r="E65" s="98" t="s">
+        <v>387</v>
       </c>
       <c r="F65" s="80" t="s">
         <v>270</v>
@@ -8071,14 +8125,14 @@
       <c r="H65" s="80" t="s">
         <v>276</v>
       </c>
-      <c r="I65" s="80" t="s">
-        <v>395</v>
+      <c r="I65" s="98" t="s">
+        <v>389</v>
       </c>
       <c r="J65" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="K65" s="80" t="s">
-        <v>396</v>
+      <c r="K65" s="100" t="s">
+        <v>390</v>
       </c>
       <c r="L65" s="80" t="s">
         <v>189</v>
@@ -8108,40 +8162,40 @@
       <c r="B66" s="58"/>
       <c r="D66" s="85"/>
       <c r="E66" s="85" t="s">
-        <v>765</v>
+        <v>587</v>
       </c>
       <c r="F66" s="85" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G66" s="85"/>
       <c r="H66" s="85" t="s">
-        <v>747</v>
+        <v>723</v>
       </c>
       <c r="I66" s="85" t="s">
-        <v>443</v>
+        <v>664</v>
       </c>
       <c r="J66" s="85"/>
       <c r="K66" s="85" t="s">
-        <v>704</v>
+        <v>783</v>
       </c>
       <c r="L66" s="85" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="M66" s="85" t="s">
-        <v>743</v>
+        <v>719</v>
       </c>
       <c r="N66" s="85" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="O66" s="85" t="s">
-        <v>674</v>
+        <v>785</v>
       </c>
       <c r="P66" s="85" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="Q66" s="85"/>
       <c r="R66" s="85" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="S66" s="96"/>
       <c r="V66" s="60"/>
@@ -8169,40 +8223,40 @@
     <row r="68" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="56"/>
       <c r="D68" s="84" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E68" s="84" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F68" s="84" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="G68" s="84"/>
       <c r="H68" s="84" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="I68" s="84" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="J68" s="84"/>
       <c r="K68" s="84"/>
       <c r="L68" s="84" t="s">
-        <v>724</v>
+        <v>702</v>
       </c>
       <c r="M68" s="84" t="s">
+        <v>493</v>
+      </c>
+      <c r="N68" s="84" t="s">
+        <v>495</v>
+      </c>
+      <c r="O68" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="P68" s="84" t="s">
         <v>499</v>
       </c>
-      <c r="N68" s="84" t="s">
+      <c r="Q68" s="84" t="s">
         <v>501</v>
-      </c>
-      <c r="O68" s="84" t="s">
-        <v>503</v>
-      </c>
-      <c r="P68" s="84" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q68" s="84" t="s">
-        <v>507</v>
       </c>
       <c r="R68" s="84"/>
       <c r="S68" s="93"/>
@@ -8244,7 +8298,7 @@
         <v>302</v>
       </c>
       <c r="N69" s="80" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="O69" s="80" t="s">
         <v>303</v>
@@ -8264,40 +8318,40 @@
     <row r="70" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="58"/>
       <c r="D70" s="85" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E70" s="85" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F70" s="85" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G70" s="85"/>
       <c r="H70" s="85" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="I70" s="85" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="J70" s="85"/>
       <c r="K70" s="85"/>
       <c r="L70" s="85" t="s">
-        <v>725</v>
+        <v>703</v>
       </c>
       <c r="M70" s="85" t="s">
+        <v>494</v>
+      </c>
+      <c r="N70" s="85" t="s">
+        <v>496</v>
+      </c>
+      <c r="O70" s="85" t="s">
+        <v>498</v>
+      </c>
+      <c r="P70" s="85" t="s">
         <v>500</v>
       </c>
-      <c r="N70" s="85" t="s">
+      <c r="Q70" s="85" t="s">
         <v>502</v>
-      </c>
-      <c r="O70" s="85" t="s">
-        <v>504</v>
-      </c>
-      <c r="P70" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q70" s="85" t="s">
-        <v>508</v>
       </c>
       <c r="R70" s="85"/>
       <c r="S70" s="96"/>
@@ -8326,44 +8380,44 @@
     <row r="72" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="56"/>
       <c r="D72" s="84" t="s">
-        <v>766</v>
+        <v>736</v>
       </c>
       <c r="E72" s="84" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
       <c r="F72" s="84" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="G72" s="84" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H72" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="I72" s="84" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="J72" s="84" t="s">
-        <v>673</v>
+        <v>784</v>
       </c>
       <c r="K72" s="84" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="L72" s="84" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M72" s="84"/>
       <c r="N72" s="84" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="O72" s="84" t="s">
-        <v>728</v>
+        <v>772</v>
       </c>
       <c r="P72" s="84" t="s">
-        <v>772</v>
+        <v>794</v>
       </c>
       <c r="Q72" s="84" t="s">
-        <v>774</v>
+        <v>738</v>
       </c>
       <c r="R72" s="84"/>
       <c r="S72" s="93"/>
@@ -8410,7 +8464,7 @@
       <c r="O73" s="80" t="s">
         <v>229</v>
       </c>
-      <c r="P73" s="80" t="s">
+      <c r="P73" s="98" t="s">
         <v>313</v>
       </c>
       <c r="Q73" s="80" t="s">
@@ -8425,44 +8479,44 @@
     <row r="74" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="58"/>
       <c r="D74" s="85" t="s">
-        <v>767</v>
+        <v>737</v>
       </c>
       <c r="E74" s="85" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="F74" s="85" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G74" s="85" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="H74" s="85" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I74" s="85" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="J74" s="85" t="s">
-        <v>674</v>
+        <v>785</v>
       </c>
       <c r="K74" s="85" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="L74" s="85" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="M74" s="85"/>
       <c r="N74" s="85" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="O74" s="85" t="s">
-        <v>729</v>
+        <v>773</v>
       </c>
       <c r="P74" s="85" t="s">
-        <v>773</v>
+        <v>795</v>
       </c>
       <c r="Q74" s="85" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="R74" s="85"/>
       <c r="S74" s="96"/>
@@ -8491,19 +8545,19 @@
     <row r="76" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="56"/>
       <c r="D76" s="84" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E76" s="84" t="s">
-        <v>533</v>
+        <v>796</v>
       </c>
       <c r="F76" s="84" t="s">
-        <v>525</v>
+        <v>766</v>
       </c>
       <c r="G76" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H76" s="84" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="I76" s="84" t="s">
         <v>588</v>
@@ -8511,20 +8565,20 @@
       <c r="J76" s="84"/>
       <c r="K76" s="84"/>
       <c r="L76" s="84" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="M76" s="84"/>
       <c r="N76" s="84" t="s">
         <v>590</v>
       </c>
       <c r="O76" s="84" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="P76" s="84" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="Q76" s="84" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="R76" s="84"/>
       <c r="S76" s="93"/>
@@ -8538,8 +8592,8 @@
       <c r="D77" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="E77" s="80" t="s">
-        <v>316</v>
+      <c r="E77" s="108" t="s">
+        <v>790</v>
       </c>
       <c r="F77" s="80" t="s">
         <v>281</v>
@@ -8548,16 +8602,16 @@
         <v>193</v>
       </c>
       <c r="H77" s="80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I77" s="80" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="J77" s="80" t="s">
         <v>228</v>
       </c>
       <c r="K77" s="80" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L77" s="80" t="s">
         <v>288</v>
@@ -8566,19 +8620,19 @@
         <v>300</v>
       </c>
       <c r="N77" s="80" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="O77" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="P77" s="80" t="s">
         <v>319</v>
-      </c>
-      <c r="P77" s="80" t="s">
-        <v>320</v>
       </c>
       <c r="Q77" s="80" t="s">
         <v>302</v>
       </c>
       <c r="R77" s="80" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S77" s="94"/>
       <c r="V77" s="60"/>
@@ -8586,19 +8640,19 @@
     <row r="78" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="58"/>
       <c r="D78" s="85" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E78" s="85" t="s">
-        <v>534</v>
+        <v>797</v>
       </c>
       <c r="F78" s="85" t="s">
-        <v>526</v>
+        <v>767</v>
       </c>
       <c r="G78" s="85" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H78" s="85" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="I78" s="85" t="s">
         <v>589</v>
@@ -8606,20 +8660,20 @@
       <c r="J78" s="85"/>
       <c r="K78" s="85"/>
       <c r="L78" s="85" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="M78" s="85"/>
       <c r="N78" s="85" t="s">
         <v>591</v>
       </c>
       <c r="O78" s="85" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="P78" s="85" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="Q78" s="85" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="R78" s="85"/>
       <c r="S78" s="96"/>
@@ -8649,40 +8703,40 @@
       <c r="B80" s="56"/>
       <c r="D80" s="84"/>
       <c r="E80" s="84" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F80" s="84" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="G80" s="84" t="s">
         <v>592</v>
       </c>
       <c r="H80" s="84" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="I80" s="84" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="J80" s="84"/>
       <c r="K80" s="84" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="L80" s="84" t="s">
-        <v>776</v>
+        <v>740</v>
       </c>
       <c r="M80" s="84" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="N80" s="84"/>
       <c r="O80" s="84" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="P80" s="84"/>
       <c r="Q80" s="84" t="s">
-        <v>673</v>
+        <v>784</v>
       </c>
       <c r="R80" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="S80" s="93"/>
       <c r="V80" s="60"/>
@@ -8693,7 +8747,7 @@
         <v>20</v>
       </c>
       <c r="D81" s="80" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E81" s="80" t="s">
         <v>286</v>
@@ -8702,13 +8756,13 @@
         <v>312</v>
       </c>
       <c r="G81" s="80" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H81" s="80" t="s">
         <v>239</v>
       </c>
       <c r="I81" s="80" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J81" s="80" t="s">
         <v>190</v>
@@ -8717,10 +8771,10 @@
         <v>217</v>
       </c>
       <c r="L81" s="80" t="s">
-        <v>323</v>
+        <v>791</v>
       </c>
       <c r="M81" s="80" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N81" s="80" t="s">
         <v>267</v>
@@ -8729,7 +8783,7 @@
         <v>186</v>
       </c>
       <c r="P81" s="80" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q81" s="80" t="s">
         <v>295</v>
@@ -8744,40 +8798,40 @@
       <c r="B82" s="58"/>
       <c r="D82" s="85"/>
       <c r="E82" s="85" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F82" s="85" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="G82" s="85" t="s">
         <v>593</v>
       </c>
       <c r="H82" s="85" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="I82" s="85" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="J82" s="85"/>
       <c r="K82" s="85" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="L82" s="85" t="s">
-        <v>777</v>
+        <v>741</v>
       </c>
       <c r="M82" s="85" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="N82" s="85"/>
       <c r="O82" s="85" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="P82" s="85"/>
       <c r="Q82" s="85" t="s">
-        <v>674</v>
+        <v>785</v>
       </c>
       <c r="R82" s="85" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="S82" s="96"/>
       <c r="V82" s="60"/>
@@ -8805,42 +8859,42 @@
     <row r="84" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="56"/>
       <c r="D84" s="84" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E84" s="84" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F84" s="84" t="s">
-        <v>695</v>
+        <v>754</v>
       </c>
       <c r="G84" s="84" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="H84" s="84" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="I84" s="84" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="J84" s="84" t="s">
-        <v>742</v>
+        <v>718</v>
       </c>
       <c r="K84" s="84"/>
       <c r="L84" s="84" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M84" s="84" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="N84" s="84" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="O84" s="84"/>
       <c r="P84" s="84" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="Q84" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="R84" s="84" t="s">
         <v>594</v>
@@ -8854,7 +8908,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="80" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E85" s="80" t="s">
         <v>237</v>
@@ -8866,7 +8920,7 @@
         <v>290</v>
       </c>
       <c r="H85" s="80" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I85" s="80" t="s">
         <v>289</v>
@@ -8878,25 +8932,25 @@
         <v>190</v>
       </c>
       <c r="L85" s="80" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M85" s="80" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="N85" s="80" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O85" s="80" t="s">
         <v>228</v>
       </c>
       <c r="P85" s="80" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q85" s="80" t="s">
         <v>193</v>
       </c>
       <c r="R85" s="80" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="S85" s="94"/>
       <c r="V85" s="60"/>
@@ -8904,42 +8958,42 @@
     <row r="86" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="58"/>
       <c r="D86" s="85" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E86" s="85" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F86" s="85" t="s">
-        <v>696</v>
+        <v>755</v>
       </c>
       <c r="G86" s="85" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="H86" s="85" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I86" s="85" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="J86" s="85" t="s">
-        <v>743</v>
+        <v>719</v>
       </c>
       <c r="K86" s="85"/>
       <c r="L86" s="85" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="M86" s="85" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="N86" s="85" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="O86" s="85"/>
       <c r="P86" s="85" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="Q86" s="85" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="R86" s="85" t="s">
         <v>595</v>
@@ -8970,42 +9024,42 @@
     <row r="88" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="56"/>
       <c r="D88" s="84" t="s">
-        <v>728</v>
+        <v>772</v>
       </c>
       <c r="E88" s="84" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F88" s="84" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G88" s="84" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H88" s="84" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I88" s="84"/>
       <c r="J88" s="84" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="K88" s="84" t="s">
-        <v>772</v>
+        <v>794</v>
       </c>
       <c r="L88" s="84" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="M88" s="84" t="s">
-        <v>442</v>
+        <v>663</v>
       </c>
       <c r="N88" s="84"/>
       <c r="O88" s="84" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="P88" s="84" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="Q88" s="84" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="R88" s="84"/>
       <c r="S88" s="93"/>
@@ -9020,10 +9074,10 @@
         <v>229</v>
       </c>
       <c r="E89" s="80" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F89" s="80" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G89" s="80" t="s">
         <v>231</v>
@@ -9035,28 +9089,28 @@
         <v>190</v>
       </c>
       <c r="J89" s="80" t="s">
-        <v>327</v>
-      </c>
-      <c r="K89" s="80" t="s">
+        <v>325</v>
+      </c>
+      <c r="K89" s="98" t="s">
         <v>313</v>
       </c>
       <c r="L89" s="80" t="s">
         <v>294</v>
       </c>
-      <c r="M89" s="80" t="s">
-        <v>395</v>
+      <c r="M89" s="98" t="s">
+        <v>389</v>
       </c>
       <c r="N89" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="O89" s="80" t="s">
-        <v>332</v>
+      <c r="O89" s="100" t="s">
+        <v>330</v>
       </c>
       <c r="P89" s="80" t="s">
         <v>214</v>
       </c>
       <c r="Q89" s="80" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="R89" s="80" t="s">
         <v>190</v>
@@ -9067,42 +9121,42 @@
     <row r="90" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="58"/>
       <c r="D90" s="85" t="s">
-        <v>729</v>
+        <v>773</v>
       </c>
       <c r="E90" s="85" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F90" s="85" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G90" s="85" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H90" s="85" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="I90" s="85"/>
       <c r="J90" s="85" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="K90" s="85" t="s">
-        <v>773</v>
+        <v>795</v>
       </c>
       <c r="L90" s="85" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M90" s="85" t="s">
-        <v>443</v>
+        <v>664</v>
       </c>
       <c r="N90" s="85"/>
       <c r="O90" s="85" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="P90" s="85" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="Q90" s="85" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="R90" s="85"/>
       <c r="S90" s="96"/>
@@ -9131,43 +9185,43 @@
     <row r="92" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="56"/>
       <c r="D92" s="84" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E92" s="84" t="s">
-        <v>778</v>
+        <v>742</v>
       </c>
       <c r="F92" s="84"/>
       <c r="G92" s="84" t="s">
-        <v>673</v>
+        <v>784</v>
       </c>
       <c r="H92" s="84" t="s">
-        <v>713</v>
+        <v>691</v>
       </c>
       <c r="I92" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="J92" s="84" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
       <c r="K92" s="84" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="L92" s="84"/>
       <c r="M92" s="84"/>
       <c r="N92" s="84" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="O92" s="84" t="s">
-        <v>708</v>
+        <v>533</v>
       </c>
       <c r="P92" s="84" t="s">
-        <v>695</v>
+        <v>754</v>
       </c>
       <c r="Q92" s="84" t="s">
-        <v>525</v>
+        <v>766</v>
       </c>
       <c r="R92" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="S92" s="93"/>
       <c r="V92" s="60"/>
@@ -9178,10 +9232,10 @@
         <v>23</v>
       </c>
       <c r="D93" s="80" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E93" s="80" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F93" s="80" t="s">
         <v>228</v>
@@ -9196,7 +9250,7 @@
         <v>193</v>
       </c>
       <c r="J93" s="80" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K93" s="80" t="s">
         <v>298</v>
@@ -9210,8 +9264,8 @@
       <c r="N93" s="80" t="s">
         <v>312</v>
       </c>
-      <c r="O93" s="80" t="s">
-        <v>336</v>
+      <c r="O93" s="108" t="s">
+        <v>143</v>
       </c>
       <c r="P93" s="80" t="s">
         <v>196</v>
@@ -9228,43 +9282,43 @@
     <row r="94" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="58"/>
       <c r="D94" s="85" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E94" s="85" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
       <c r="F94" s="85"/>
       <c r="G94" s="85" t="s">
-        <v>674</v>
+        <v>785</v>
       </c>
       <c r="H94" s="85" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="I94" s="85" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="J94" s="85" t="s">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="K94" s="85" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="L94" s="85"/>
       <c r="M94" s="85"/>
       <c r="N94" s="85" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="O94" s="85" t="s">
-        <v>709</v>
+        <v>534</v>
       </c>
       <c r="P94" s="85" t="s">
-        <v>696</v>
+        <v>755</v>
       </c>
       <c r="Q94" s="85" t="s">
-        <v>526</v>
+        <v>767</v>
       </c>
       <c r="R94" s="85" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="S94" s="96"/>
       <c r="V94" s="60"/>
@@ -9292,10 +9346,10 @@
     <row r="96" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="56"/>
       <c r="D96" s="84" t="s">
-        <v>678</v>
+        <v>768</v>
       </c>
       <c r="E96" s="84" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="F96" s="84"/>
       <c r="G96" s="84"/>
@@ -9319,16 +9373,16 @@
         <v>24</v>
       </c>
       <c r="D97" s="80" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E97" s="80" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F97" s="80" t="s">
         <v>228</v>
       </c>
       <c r="G97" s="81" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H97" s="80"/>
       <c r="I97" s="80"/>
@@ -9347,10 +9401,10 @@
     <row r="98" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="58"/>
       <c r="D98" s="85" t="s">
-        <v>679</v>
+        <v>769</v>
       </c>
       <c r="E98" s="85" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="F98" s="85"/>
       <c r="G98" s="85"/>
@@ -9476,37 +9530,37 @@
       <c r="D104" s="84"/>
       <c r="E104" s="84"/>
       <c r="F104" s="84" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="G104" s="84" t="s">
-        <v>772</v>
+        <v>794</v>
       </c>
       <c r="H104" s="84"/>
       <c r="I104" s="84" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J104" s="84" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="K104" s="84" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="L104" s="84"/>
       <c r="M104" s="84" t="s">
-        <v>647</v>
+        <v>442</v>
       </c>
       <c r="N104" s="84" t="s">
         <v>596</v>
       </c>
       <c r="O104" s="84" t="s">
-        <v>476</v>
+        <v>798</v>
       </c>
       <c r="P104" s="84" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="Q104" s="84"/>
       <c r="R104" s="84" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="S104" s="93"/>
       <c r="V104" s="60"/>
@@ -9523,9 +9577,9 @@
         <v>185</v>
       </c>
       <c r="F105" s="80" t="s">
-        <v>339</v>
-      </c>
-      <c r="G105" s="81" t="s">
+        <v>336</v>
+      </c>
+      <c r="G105" s="107" t="s">
         <v>313</v>
       </c>
       <c r="H105" s="80" t="s">
@@ -9543,14 +9597,14 @@
       <c r="L105" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="M105" s="80" t="s">
-        <v>412</v>
+      <c r="M105" s="98" t="s">
+        <v>406</v>
       </c>
       <c r="N105" s="80" t="s">
-        <v>405</v>
-      </c>
-      <c r="O105" s="80" t="s">
-        <v>406</v>
+        <v>399</v>
+      </c>
+      <c r="O105" s="108" t="s">
+        <v>400</v>
       </c>
       <c r="P105" s="80" t="s">
         <v>202</v>
@@ -9559,7 +9613,7 @@
         <v>190</v>
       </c>
       <c r="R105" s="80" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="S105" s="94"/>
       <c r="V105" s="60"/>
@@ -9569,37 +9623,37 @@
       <c r="D106" s="85"/>
       <c r="E106" s="85"/>
       <c r="F106" s="85" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G106" s="85" t="s">
-        <v>773</v>
+        <v>795</v>
       </c>
       <c r="H106" s="85"/>
       <c r="I106" s="85" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J106" s="85" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="K106" s="85" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="L106" s="85"/>
       <c r="M106" s="85" t="s">
-        <v>648</v>
+        <v>443</v>
       </c>
       <c r="N106" s="85" t="s">
         <v>597</v>
       </c>
       <c r="O106" s="85" t="s">
-        <v>477</v>
+        <v>799</v>
       </c>
       <c r="P106" s="85" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="Q106" s="85"/>
       <c r="R106" s="85" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="S106" s="96"/>
       <c r="V106" s="60"/>
@@ -9627,43 +9681,43 @@
     <row r="108" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="56"/>
       <c r="D108" s="84" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="E108" s="84" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F108" s="84" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G108" s="84"/>
       <c r="H108" s="84" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="I108" s="84" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="J108" s="84" t="s">
-        <v>784</v>
+        <v>746</v>
       </c>
       <c r="K108" s="84"/>
       <c r="L108" s="84" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="M108" s="84" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="N108" s="84" t="s">
-        <v>786</v>
+        <v>748</v>
       </c>
       <c r="O108" s="84"/>
       <c r="P108" s="84" t="s">
-        <v>788</v>
+        <v>750</v>
       </c>
       <c r="Q108" s="84" t="s">
-        <v>754</v>
+        <v>728</v>
       </c>
       <c r="R108" s="84" t="s">
-        <v>673</v>
+        <v>784</v>
       </c>
       <c r="S108" s="93"/>
       <c r="V108" s="60"/>
@@ -9674,10 +9728,10 @@
         <v>27</v>
       </c>
       <c r="D109" s="80" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E109" s="80" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F109" s="80" t="s">
         <v>203</v>
@@ -9686,31 +9740,31 @@
         <v>228</v>
       </c>
       <c r="H109" s="80" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I109" s="80" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J109" s="80" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K109" s="80" t="s">
         <v>190</v>
       </c>
       <c r="L109" s="80" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M109" s="80" t="s">
         <v>187</v>
       </c>
       <c r="N109" s="80" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="O109" s="80" t="s">
         <v>190</v>
       </c>
       <c r="P109" s="80" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q109" s="80" t="s">
         <v>280</v>
@@ -9724,43 +9778,43 @@
     <row r="110" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="58"/>
       <c r="D110" s="85" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="E110" s="85" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F110" s="85" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G110" s="85"/>
       <c r="H110" s="85" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="I110" s="85" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="J110" s="85" t="s">
-        <v>785</v>
+        <v>747</v>
       </c>
       <c r="K110" s="85"/>
       <c r="L110" s="85" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="M110" s="85" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="N110" s="85" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="O110" s="85"/>
       <c r="P110" s="85" t="s">
-        <v>789</v>
+        <v>751</v>
       </c>
       <c r="Q110" s="85" t="s">
-        <v>755</v>
+        <v>729</v>
       </c>
       <c r="R110" s="85" t="s">
-        <v>674</v>
+        <v>785</v>
       </c>
       <c r="S110" s="96"/>
       <c r="V110" s="60"/>
@@ -9789,41 +9843,41 @@
       <c r="B112" s="56"/>
       <c r="D112" s="84"/>
       <c r="E112" s="84" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F112" s="84" t="s">
-        <v>786</v>
+        <v>748</v>
       </c>
       <c r="G112" s="84" t="s">
         <v>598</v>
       </c>
       <c r="H112" s="84" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="I112" s="84" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="J112" s="84" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="K112" s="84" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L112" s="84" t="s">
-        <v>701</v>
+        <v>764</v>
       </c>
       <c r="M112" s="84"/>
       <c r="N112" s="84" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="O112" s="84" t="s">
-        <v>476</v>
+        <v>798</v>
       </c>
       <c r="P112" s="84" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="Q112" s="84" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="R112" s="84"/>
       <c r="S112" s="93"/>
@@ -9841,19 +9895,19 @@
         <v>187</v>
       </c>
       <c r="F113" s="80" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G113" s="80" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H113" s="80" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I113" s="80" t="s">
         <v>193</v>
       </c>
       <c r="J113" s="80" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K113" s="80" t="s">
         <v>231</v>
@@ -9865,16 +9919,16 @@
         <v>190</v>
       </c>
       <c r="N113" s="80" t="s">
-        <v>411</v>
-      </c>
-      <c r="O113" s="80" t="s">
-        <v>340</v>
+        <v>405</v>
+      </c>
+      <c r="O113" s="108" t="s">
+        <v>400</v>
       </c>
       <c r="P113" s="80" t="s">
         <v>289</v>
       </c>
       <c r="Q113" s="80" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="R113" s="80" t="s">
         <v>190</v>
@@ -9886,41 +9940,41 @@
       <c r="B114" s="58"/>
       <c r="D114" s="85"/>
       <c r="E114" s="85" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F114" s="85" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="G114" s="85" t="s">
         <v>599</v>
       </c>
       <c r="H114" s="85" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="I114" s="85" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="J114" s="85" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="K114" s="85" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="L114" s="85" t="s">
-        <v>702</v>
+        <v>765</v>
       </c>
       <c r="M114" s="85"/>
       <c r="N114" s="85" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="O114" s="85" t="s">
-        <v>477</v>
+        <v>799</v>
       </c>
       <c r="P114" s="85" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="Q114" s="85" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="R114" s="85"/>
       <c r="S114" s="96"/>
@@ -9949,22 +10003,22 @@
     <row r="116" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="56"/>
       <c r="D116" s="84" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E116" s="84" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="F116" s="84" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="G116" s="84" t="s">
-        <v>728</v>
+        <v>772</v>
       </c>
       <c r="H116" s="84" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I116" s="84" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="J116" s="84"/>
       <c r="K116" s="84"/>
@@ -9987,7 +10041,7 @@
         <v>315</v>
       </c>
       <c r="E117" s="80" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F117" s="80" t="s">
         <v>312</v>
@@ -10018,22 +10072,22 @@
     <row r="118" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="58"/>
       <c r="D118" s="85" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E118" s="85" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="F118" s="85" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="G118" s="85" t="s">
-        <v>729</v>
+        <v>773</v>
       </c>
       <c r="H118" s="85" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I118" s="85" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="J118" s="85"/>
       <c r="K118" s="85"/>
@@ -10155,39 +10209,39 @@
       <c r="D124" s="84"/>
       <c r="E124" s="84"/>
       <c r="F124" s="84" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="G124" s="84" t="s">
-        <v>710</v>
+        <v>688</v>
       </c>
       <c r="H124" s="84" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="I124" s="84" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="J124" s="84" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="K124" s="84"/>
       <c r="L124" s="84" t="s">
-        <v>657</v>
+        <v>770</v>
       </c>
       <c r="M124" s="84" t="s">
-        <v>790</v>
+        <v>544</v>
       </c>
       <c r="N124" s="84" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="O124" s="84" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="P124" s="84"/>
       <c r="Q124" s="84" t="s">
-        <v>742</v>
+        <v>718</v>
       </c>
       <c r="R124" s="84" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="S124" s="93"/>
       <c r="V124" s="60"/>
@@ -10204,34 +10258,34 @@
         <v>185</v>
       </c>
       <c r="F125" s="80" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G125" s="81" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H125" s="80" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I125" s="80" t="s">
         <v>308</v>
       </c>
       <c r="J125" s="80" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K125" s="80" t="s">
         <v>190</v>
       </c>
       <c r="L125" s="80" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M125" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="N125" s="80" t="s">
-        <v>357</v>
+        <v>792</v>
+      </c>
+      <c r="N125" s="109" t="s">
+        <v>793</v>
       </c>
       <c r="O125" s="80" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P125" s="80" t="s">
         <v>190</v>
@@ -10250,39 +10304,39 @@
       <c r="D126" s="85"/>
       <c r="E126" s="85"/>
       <c r="F126" s="85" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="G126" s="85" t="s">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="H126" s="85" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="I126" s="85" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="J126" s="85" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="K126" s="85"/>
       <c r="L126" s="85" t="s">
-        <v>658</v>
+        <v>771</v>
       </c>
       <c r="M126" s="85" t="s">
-        <v>791</v>
+        <v>545</v>
       </c>
       <c r="N126" s="85" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="O126" s="85" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="P126" s="85"/>
       <c r="Q126" s="85" t="s">
-        <v>743</v>
+        <v>719</v>
       </c>
       <c r="R126" s="85" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="S126" s="96"/>
       <c r="V126" s="60"/>
@@ -10311,40 +10365,40 @@
       <c r="B128" s="56"/>
       <c r="D128" s="84"/>
       <c r="E128" s="84" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="F128" s="84" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G128" s="84" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H128" s="84" t="s">
-        <v>701</v>
+        <v>764</v>
       </c>
       <c r="I128" s="84"/>
       <c r="J128" s="84" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="K128" s="84" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L128" s="84"/>
       <c r="M128" s="84" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="N128" s="84" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="O128" s="84" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="P128" s="84"/>
       <c r="Q128" s="84" t="s">
-        <v>792</v>
+        <v>752</v>
       </c>
       <c r="R128" s="84" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="S128" s="93"/>
       <c r="V128" s="60"/>
@@ -10364,7 +10418,7 @@
         <v>256</v>
       </c>
       <c r="G129" s="80" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H129" s="80" t="s">
         <v>274</v>
@@ -10373,28 +10427,28 @@
         <v>190</v>
       </c>
       <c r="J129" s="80" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="K129" s="80" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="L129" s="80" t="s">
         <v>190</v>
       </c>
       <c r="M129" s="80" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="N129" s="80" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="O129" s="80" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="P129" s="80" t="s">
         <v>228</v>
       </c>
       <c r="Q129" s="80" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="R129" s="80" t="s">
         <v>315</v>
@@ -10406,40 +10460,40 @@
       <c r="B130" s="58"/>
       <c r="D130" s="85"/>
       <c r="E130" s="85" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="F130" s="85" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G130" s="85" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H130" s="85" t="s">
-        <v>702</v>
+        <v>765</v>
       </c>
       <c r="I130" s="85"/>
       <c r="J130" s="85" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="K130" s="85" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="L130" s="85"/>
       <c r="M130" s="85" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="N130" s="85" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="O130" s="85" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="P130" s="85"/>
       <c r="Q130" s="85" t="s">
-        <v>793</v>
+        <v>753</v>
       </c>
       <c r="R130" s="85" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="S130" s="96"/>
       <c r="V130" s="60"/>
@@ -10467,16 +10521,16 @@
     <row r="132" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="56"/>
       <c r="D132" s="84" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="E132" s="84" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F132" s="84" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="G132" s="84" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H132" s="84"/>
       <c r="I132" s="84"/>
@@ -10504,10 +10558,10 @@
         <v>288</v>
       </c>
       <c r="F133" s="80" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G133" s="81" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H133" s="80" t="s">
         <v>228</v>
@@ -10528,16 +10582,16 @@
     <row r="134" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="58"/>
       <c r="D134" s="85" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E134" s="85" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F134" s="85" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="G134" s="85" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H134" s="85"/>
       <c r="I134" s="85"/>
